--- a/matlab/scripts/optimal_log/Initial_data_analysis.xlsx
+++ b/matlab/scripts/optimal_log/Initial_data_analysis.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MTHE493\Polya_Restoration\matlab\scripts\optimal_log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cko/repos/school/Polya_Restoration/matlab/scripts/optimal_log/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA504F6D-5016-2C4C-AD6B-DCE5F1E1330D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{F5EC45BB-9BF6-4592-8A54-61375F823C90}"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17560" xr2:uid="{F5EC45BB-9BF6-4592-8A54-61375F823C90}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New" sheetId="3" r:id="rId1"/>
+    <sheet name="Old" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">New!$A$1:$I$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Old!$A$1:$I$37</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="62">
   <si>
     <t>Noise Type</t>
   </si>
@@ -93,16 +96,150 @@
   </si>
   <si>
     <t>Speckle + Gauss Markov High</t>
+  </si>
+  <si>
+    <t>aerial1</t>
+  </si>
+  <si>
+    <t>goldengate</t>
+  </si>
+  <si>
+    <t>lena512</t>
+  </si>
+  <si>
+    <t>pentagon</t>
+  </si>
+  <si>
+    <t>N = 50, MSE = 659.0771, PSNR = 19.9414, SSIM = 0.5557</t>
+  </si>
+  <si>
+    <t>N = 2, MSE = 364.7360, PSNR = 22.2222, SSIM = 0.5494</t>
+  </si>
+  <si>
+    <t>N = 50, MSE = 547.1881, PSNR = 20.7494, SSIM = 0.5721</t>
+  </si>
+  <si>
+    <t>N = 2, MSE = 310.1513, PSNR = 22.3713, SSIM = 0.5501</t>
+  </si>
+  <si>
+    <t>N = 2, MSE = 295.6787, PSNR = 22.4797, SSIM = 0.5570</t>
+  </si>
+  <si>
+    <t>N = 2, MSE = 297.4238, PSNR = 22.4685, SSIM = 0.5563</t>
+  </si>
+  <si>
+    <t>N = 4, MSE = 451.8301, PSNR = 21.4685, SSIM = 0.5077</t>
+  </si>
+  <si>
+    <t>N = 2, MSE = 294.5130, PSNR = 22.4844, SSIM = 0.5573</t>
+  </si>
+  <si>
+    <t>N = 2, MSE = 343.2072, PSNR = 22.1382, SSIM = 0.5517</t>
+  </si>
+  <si>
+    <t>N = 50, MSE = 217.5027, PSNR = 24.7562, SSIM = 0.6866</t>
+  </si>
+  <si>
+    <t>N = 4, MSE = 127.6107, PSNR = 27.0719, SSIM = 0.7048</t>
+  </si>
+  <si>
+    <t>N = 37, MSE = 185.9731, PSNR = 25.4363, SSIM = 0.7043</t>
+  </si>
+  <si>
+    <t>N = 4, MSE = 113.9014, PSNR = 27.5655, SSIM = 0.6941</t>
+  </si>
+  <si>
+    <t>N = 3, MSE = 103.6925, PSNR = 27.5503, SSIM = 0.7232</t>
+  </si>
+  <si>
+    <t>N = 3, MSE = 104.7821, PSNR = 27.5253, SSIM = 0.7215</t>
+  </si>
+  <si>
+    <t>N = 8, MSE = 152.2994, PSNR = 26.3038, SSIM = 0.6542</t>
+  </si>
+  <si>
+    <t>N = 3, MSE = 103.0918, PSNR = 27.9986, SSIM = 0.7039</t>
+  </si>
+  <si>
+    <t>N = 5, MSE = 118.7346, PSNR = 27.3850, SSIM = 0.6964</t>
+  </si>
+  <si>
+    <t>N = 47, MSE = 224.6414, PSNR = 24.6159, SSIM = 0.7149</t>
+  </si>
+  <si>
+    <t>N = 6, MSE = 112.6387, PSNR = 27.6139, SSIM = 0.7529</t>
+  </si>
+  <si>
+    <t>N = 27, MSE = 180.3546, PSNR = 25.5695, SSIM = 0.7322</t>
+  </si>
+  <si>
+    <t>N = 5, MSE = 98.4100, PSNR = 28.2004, SSIM = 0.7407</t>
+  </si>
+  <si>
+    <t>N = 4, MSE = 87.9226, PSNR = 28.2707, SSIM = 0.7615</t>
+  </si>
+  <si>
+    <t>N = 5, MSE = 89.1637, PSNR = 28.6289, SSIM = 0.7567</t>
+  </si>
+  <si>
+    <t>N = 8, MSE = 146.8677, PSNR = 26.4615, SSIM = 0.6857</t>
+  </si>
+  <si>
+    <t>N = 5, MSE = 87.2529, PSNR = 28.7230, SSIM = 0.7600</t>
+  </si>
+  <si>
+    <t>N = 6, MSE = 104.5967, PSNR = 27.9356, SSIM = 0.7360</t>
+  </si>
+  <si>
+    <t>N = 50, MSE = 320.6117, PSNR = 23.0710, SSIM = 0.5667</t>
+  </si>
+  <si>
+    <t>N = 4, MSE = 190.1104, PSNR = 25.3407, SSIM = 0.6053</t>
+  </si>
+  <si>
+    <t>N = 45, MSE = 249.5671, PSNR = 24.1589, SSIM = 0.5815</t>
+  </si>
+  <si>
+    <t>N = 4, MSE = 167.9014, PSNR = 25.8803, SSIM = 0.6021</t>
+  </si>
+  <si>
+    <t>N = 3, MSE = 156.2927, PSNR = 26.1914, SSIM = 0.6143</t>
+  </si>
+  <si>
+    <t>N = 3, MSE = 157.5194, PSNR = 26.1575, SSIM = 0.6126</t>
+  </si>
+  <si>
+    <t>N = 8, MSE = 224.6111, PSNR = 24.6165, SSIM = 0.5452</t>
+  </si>
+  <si>
+    <t>N = 3, MSE = 155.7081, PSNR = 26.2077, SSIM = 0.6151</t>
+  </si>
+  <si>
+    <t>N = 4, MSE = 177.9042, PSNR = 25.2950, SSIM = 0.5621</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,10 +271,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,21 +590,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33746906-0B72-4A7D-8ACA-AE2BCDFC541B}">
-  <dimension ref="A1:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC43DABC-DBC5-8947-9323-9B71ED88D465}">
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L25" sqref="L25"/>
+      <selection pane="topRight" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,11 +633,1219 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3">
+        <v>589.524</v>
+      </c>
+      <c r="H2" s="3">
+        <v>20.425999999999998</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>256</v>
+      </c>
+      <c r="E3" s="3">
+        <v>100</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>314.74200000000002</v>
+      </c>
+      <c r="H3" s="3">
+        <v>23.151</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>128</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>500.08499999999998</v>
+      </c>
+      <c r="H4" s="3">
+        <v>21.14</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>64</v>
+      </c>
+      <c r="E5" s="3">
+        <v>160</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>279.11</v>
+      </c>
+      <c r="H5" s="3">
+        <v>23.672999999999998</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>128</v>
+      </c>
+      <c r="E6" s="3">
+        <v>120</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>260.00099999999998</v>
+      </c>
+      <c r="H6" s="3">
+        <v>23.981000000000002</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>128</v>
+      </c>
+      <c r="E7" s="3">
+        <v>120</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>263.75799999999998</v>
+      </c>
+      <c r="H7" s="3">
+        <v>23.919</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.629</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>256</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>409.666</v>
+      </c>
+      <c r="H8" s="3">
+        <v>22.006</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>256</v>
+      </c>
+      <c r="E9" s="3">
+        <v>140</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <v>260.74799999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>23.969000000000001</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>315.17700000000002</v>
+      </c>
+      <c r="H10" s="3">
+        <v>23.145</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>182.899</v>
+      </c>
+      <c r="H11" s="3">
+        <v>25.509</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>128</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>110.94199999999999</v>
+      </c>
+      <c r="H12" s="3">
+        <v>27.68</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3">
+        <v>157.38399999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>26.161000000000001</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>128</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>107.913</v>
+      </c>
+      <c r="H14" s="3">
+        <v>27.8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>256</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>97.566999999999993</v>
+      </c>
+      <c r="H15" s="3">
+        <v>28.238</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>256</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>98.691000000000003</v>
+      </c>
+      <c r="H16" s="3">
+        <v>28.187999999999999</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>256</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3">
+        <v>140.85400000000001</v>
+      </c>
+      <c r="H17" s="3">
+        <v>26.643000000000001</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>128</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>97.591999999999999</v>
+      </c>
+      <c r="H18" s="3">
+        <v>28.236999999999998</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="K18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>256</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6</v>
+      </c>
+      <c r="G19" s="3">
+        <v>110.83499999999999</v>
+      </c>
+      <c r="H19" s="3">
+        <v>27.684000000000001</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>128</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>9</v>
+      </c>
+      <c r="G20" s="3">
+        <v>195.70599999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>25.215</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.746</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>256</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>7</v>
+      </c>
+      <c r="G21" s="3">
+        <v>96.51</v>
+      </c>
+      <c r="H21" s="3">
+        <v>28.285</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>256</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>155.54599999999999</v>
+      </c>
+      <c r="H22" s="3">
+        <v>26.212</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>256</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3">
+        <v>92.981999999999999</v>
+      </c>
+      <c r="H23" s="3">
+        <v>28.446999999999999</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>256</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6</v>
+      </c>
+      <c r="G24" s="3">
+        <v>82.798000000000002</v>
+      </c>
+      <c r="H24" s="3">
+        <v>28.951000000000001</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>256</v>
+      </c>
+      <c r="E25" s="3">
+        <v>100</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6</v>
+      </c>
+      <c r="G25" s="3">
+        <v>83.894000000000005</v>
+      </c>
+      <c r="H25" s="3">
+        <v>28.893000000000001</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="K25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>256</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3">
+        <v>134.81200000000001</v>
+      </c>
+      <c r="H26" s="3">
+        <v>26.834</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="K26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>256</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>6</v>
+      </c>
+      <c r="G27" s="3">
+        <v>82.085999999999999</v>
+      </c>
+      <c r="H27" s="3">
+        <v>28.988</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="K27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>128</v>
+      </c>
+      <c r="E28" s="3">
+        <v>100</v>
+      </c>
+      <c r="F28" s="3">
+        <v>7</v>
+      </c>
+      <c r="G28" s="3">
+        <v>97.521000000000001</v>
+      </c>
+      <c r="H28" s="3">
+        <v>28.24</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="K28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>256</v>
+      </c>
+      <c r="E29" s="3">
+        <v>100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3">
+        <v>292.71300000000002</v>
+      </c>
+      <c r="H29" s="3">
+        <v>23.466000000000001</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="K29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3">
+        <v>256</v>
+      </c>
+      <c r="E30" s="3">
+        <v>100</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>184.626</v>
+      </c>
+      <c r="H30" s="3">
+        <v>25.468</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="K30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>64</v>
+      </c>
+      <c r="E31" s="3">
+        <v>100</v>
+      </c>
+      <c r="F31" s="3">
+        <v>7</v>
+      </c>
+      <c r="G31" s="3">
+        <v>247.785</v>
+      </c>
+      <c r="H31" s="3">
+        <v>24.19</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="K31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>256</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
+        <v>165.821</v>
+      </c>
+      <c r="H32" s="3">
+        <v>25.934000000000001</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="K32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>256</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3">
+        <v>154.28</v>
+      </c>
+      <c r="H33" s="3">
+        <v>26.248000000000001</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="K33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>256</v>
+      </c>
+      <c r="E34" s="3">
+        <v>100</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3">
+        <v>155.50200000000001</v>
+      </c>
+      <c r="H34" s="3">
+        <v>26.213000000000001</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="K34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>256</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>11</v>
+      </c>
+      <c r="G35" s="3">
+        <v>215.56700000000001</v>
+      </c>
+      <c r="H35" s="3">
+        <v>24.795000000000002</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="K35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>256</v>
+      </c>
+      <c r="E36" s="3">
+        <v>100</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3">
+        <v>153.62100000000001</v>
+      </c>
+      <c r="H36" s="3">
+        <v>26.265999999999998</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="K36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>256</v>
+      </c>
+      <c r="E37" s="3">
+        <v>100</v>
+      </c>
+      <c r="F37" s="3">
+        <v>6</v>
+      </c>
+      <c r="G37" s="3">
+        <v>173.547</v>
+      </c>
+      <c r="H37" s="3">
+        <v>25.736999999999998</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="K37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I37" xr:uid="{EA99F5D4-17E7-4E3A-AD12-CAED7081E540}">
+    <sortState ref="A2:B37">
+      <sortCondition ref="A20"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33746906-0B72-4A7D-8ACA-AE2BCDFC541B}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1">
@@ -523,7 +1870,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -552,7 +1899,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -581,7 +1928,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -610,7 +1957,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -639,7 +1986,7 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -668,7 +2015,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -697,7 +2044,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -726,7 +2073,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -755,7 +2102,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -784,7 +2131,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -813,7 +2160,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -842,7 +2189,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -871,7 +2218,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -900,7 +2247,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -929,7 +2276,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -958,7 +2305,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -987,7 +2334,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1016,7 +2363,7 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1045,7 +2392,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1074,7 +2421,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1103,7 +2450,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1132,7 +2479,7 @@
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1161,7 +2508,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1190,7 +2537,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1219,7 +2566,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1248,7 +2595,7 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1277,7 +2624,7 @@
         <v>0.65200000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1306,7 +2653,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1335,7 +2682,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1364,7 +2711,7 @@
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1393,7 +2740,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1422,7 +2769,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1451,7 +2798,7 @@
         <v>0.48599999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1480,7 +2827,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1509,7 +2856,7 @@
         <v>0.69399999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>

--- a/matlab/scripts/optimal_log/Initial_data_analysis.xlsx
+++ b/matlab/scripts/optimal_log/Initial_data_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cko/repos/school/Polya_Restoration/matlab/scripts/optimal_log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA504F6D-5016-2C4C-AD6B-DCE5F1E1330D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB7A42F-DB8B-7B49-BC27-B745A8E1D12C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17560" xr2:uid="{F5EC45BB-9BF6-4592-8A54-61375F823C90}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Old" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">New!$A$1:$I$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">New!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Old!$A$1:$I$37</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="27">
   <si>
     <t>Noise Type</t>
   </si>
@@ -110,112 +110,7 @@
     <t>pentagon</t>
   </si>
   <si>
-    <t>N = 50, MSE = 659.0771, PSNR = 19.9414, SSIM = 0.5557</t>
-  </si>
-  <si>
-    <t>N = 2, MSE = 364.7360, PSNR = 22.2222, SSIM = 0.5494</t>
-  </si>
-  <si>
-    <t>N = 50, MSE = 547.1881, PSNR = 20.7494, SSIM = 0.5721</t>
-  </si>
-  <si>
-    <t>N = 2, MSE = 310.1513, PSNR = 22.3713, SSIM = 0.5501</t>
-  </si>
-  <si>
-    <t>N = 2, MSE = 295.6787, PSNR = 22.4797, SSIM = 0.5570</t>
-  </si>
-  <si>
-    <t>N = 2, MSE = 297.4238, PSNR = 22.4685, SSIM = 0.5563</t>
-  </si>
-  <si>
-    <t>N = 4, MSE = 451.8301, PSNR = 21.4685, SSIM = 0.5077</t>
-  </si>
-  <si>
-    <t>N = 2, MSE = 294.5130, PSNR = 22.4844, SSIM = 0.5573</t>
-  </si>
-  <si>
-    <t>N = 2, MSE = 343.2072, PSNR = 22.1382, SSIM = 0.5517</t>
-  </si>
-  <si>
-    <t>N = 50, MSE = 217.5027, PSNR = 24.7562, SSIM = 0.6866</t>
-  </si>
-  <si>
-    <t>N = 4, MSE = 127.6107, PSNR = 27.0719, SSIM = 0.7048</t>
-  </si>
-  <si>
-    <t>N = 37, MSE = 185.9731, PSNR = 25.4363, SSIM = 0.7043</t>
-  </si>
-  <si>
-    <t>N = 4, MSE = 113.9014, PSNR = 27.5655, SSIM = 0.6941</t>
-  </si>
-  <si>
-    <t>N = 3, MSE = 103.6925, PSNR = 27.5503, SSIM = 0.7232</t>
-  </si>
-  <si>
-    <t>N = 3, MSE = 104.7821, PSNR = 27.5253, SSIM = 0.7215</t>
-  </si>
-  <si>
-    <t>N = 8, MSE = 152.2994, PSNR = 26.3038, SSIM = 0.6542</t>
-  </si>
-  <si>
-    <t>N = 3, MSE = 103.0918, PSNR = 27.9986, SSIM = 0.7039</t>
-  </si>
-  <si>
-    <t>N = 5, MSE = 118.7346, PSNR = 27.3850, SSIM = 0.6964</t>
-  </si>
-  <si>
-    <t>N = 47, MSE = 224.6414, PSNR = 24.6159, SSIM = 0.7149</t>
-  </si>
-  <si>
-    <t>N = 6, MSE = 112.6387, PSNR = 27.6139, SSIM = 0.7529</t>
-  </si>
-  <si>
-    <t>N = 27, MSE = 180.3546, PSNR = 25.5695, SSIM = 0.7322</t>
-  </si>
-  <si>
-    <t>N = 5, MSE = 98.4100, PSNR = 28.2004, SSIM = 0.7407</t>
-  </si>
-  <si>
-    <t>N = 4, MSE = 87.9226, PSNR = 28.2707, SSIM = 0.7615</t>
-  </si>
-  <si>
-    <t>N = 5, MSE = 89.1637, PSNR = 28.6289, SSIM = 0.7567</t>
-  </si>
-  <si>
-    <t>N = 8, MSE = 146.8677, PSNR = 26.4615, SSIM = 0.6857</t>
-  </si>
-  <si>
-    <t>N = 5, MSE = 87.2529, PSNR = 28.7230, SSIM = 0.7600</t>
-  </si>
-  <si>
-    <t>N = 6, MSE = 104.5967, PSNR = 27.9356, SSIM = 0.7360</t>
-  </si>
-  <si>
-    <t>N = 50, MSE = 320.6117, PSNR = 23.0710, SSIM = 0.5667</t>
-  </si>
-  <si>
-    <t>N = 4, MSE = 190.1104, PSNR = 25.3407, SSIM = 0.6053</t>
-  </si>
-  <si>
-    <t>N = 45, MSE = 249.5671, PSNR = 24.1589, SSIM = 0.5815</t>
-  </si>
-  <si>
-    <t>N = 4, MSE = 167.9014, PSNR = 25.8803, SSIM = 0.6021</t>
-  </si>
-  <si>
-    <t>N = 3, MSE = 156.2927, PSNR = 26.1914, SSIM = 0.6143</t>
-  </si>
-  <si>
-    <t>N = 3, MSE = 157.5194, PSNR = 26.1575, SSIM = 0.6126</t>
-  </si>
-  <si>
-    <t>N = 8, MSE = 224.6111, PSNR = 24.6165, SSIM = 0.5452</t>
-  </si>
-  <si>
-    <t>N = 3, MSE = 155.7081, PSNR = 26.2077, SSIM = 0.6151</t>
-  </si>
-  <si>
-    <t>N = 4, MSE = 177.9042, PSNR = 25.2950, SSIM = 0.5621</t>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -591,11 +486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC43DABC-DBC5-8947-9323-9B71ED88D465}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K37" sqref="K37"/>
+      <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -604,7 +499,7 @@
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,8 +527,20 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -661,11 +568,20 @@
       <c r="I2" s="3">
         <v>0.51300000000000001</v>
       </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>659.07709999999997</v>
+      </c>
+      <c r="L2">
+        <v>19.941400000000002</v>
+      </c>
+      <c r="M2">
+        <v>0.55569999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -693,11 +609,20 @@
       <c r="I3" s="3">
         <v>0.62</v>
       </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>364.73599999999999</v>
+      </c>
+      <c r="L3">
+        <v>22.222200000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.5494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -725,11 +650,20 @@
       <c r="I4" s="3">
         <v>0.55700000000000005</v>
       </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>547.18809999999996</v>
+      </c>
+      <c r="L4">
+        <v>20.749400000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.57210000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -757,11 +691,20 @@
       <c r="I5" s="3">
         <v>0.61799999999999999</v>
       </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>310.15129999999999</v>
+      </c>
+      <c r="L5">
+        <v>22.371300000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.55010000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -789,11 +732,20 @@
       <c r="I6" s="3">
         <v>0.63100000000000001</v>
       </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>295.67869999999999</v>
+      </c>
+      <c r="L6">
+        <v>22.479700000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -821,11 +773,20 @@
       <c r="I7" s="3">
         <v>0.629</v>
       </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>297.42380000000003</v>
+      </c>
+      <c r="L7">
+        <v>22.468499999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.55630000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -853,11 +814,20 @@
       <c r="I8" s="3">
         <v>0.54200000000000004</v>
       </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>451.83010000000002</v>
+      </c>
+      <c r="L8">
+        <v>21.468499999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.50770000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -885,11 +855,20 @@
       <c r="I9" s="3">
         <v>0.63100000000000001</v>
       </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>294.51299999999998</v>
+      </c>
+      <c r="L9">
+        <v>22.484400000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.55730000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -917,11 +896,20 @@
       <c r="I10" s="3">
         <v>0.58899999999999997</v>
       </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>343.2072</v>
+      </c>
+      <c r="L10">
+        <v>22.138200000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.55169999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -949,11 +937,20 @@
       <c r="I11" s="3">
         <v>0.70399999999999996</v>
       </c>
-      <c r="K11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>217.5027</v>
+      </c>
+      <c r="L11">
+        <v>24.7562</v>
+      </c>
+      <c r="M11">
+        <v>0.68659999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -981,11 +978,20 @@
       <c r="I12" s="3">
         <v>0.69299999999999995</v>
       </c>
-      <c r="K12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>127.61069999999999</v>
+      </c>
+      <c r="L12">
+        <v>27.071899999999999</v>
+      </c>
+      <c r="M12">
+        <v>0.70479999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1013,11 +1019,20 @@
       <c r="I13" s="3">
         <v>0.71599999999999997</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>185.97309999999999</v>
+      </c>
+      <c r="L13">
+        <v>25.436299999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.70430000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1045,11 +1060,20 @@
       <c r="I14" s="3">
         <v>0.69099999999999995</v>
       </c>
-      <c r="K14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>113.9014</v>
+      </c>
+      <c r="L14">
+        <v>27.5655</v>
+      </c>
+      <c r="M14">
+        <v>0.69410000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1077,11 +1101,20 @@
       <c r="I15" s="3">
         <v>0.70199999999999996</v>
       </c>
-      <c r="K15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>103.6925</v>
+      </c>
+      <c r="L15">
+        <v>27.5503</v>
+      </c>
+      <c r="M15">
+        <v>0.72319999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1109,11 +1142,20 @@
       <c r="I16" s="3">
         <v>0.69799999999999995</v>
       </c>
-      <c r="K16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>104.7821</v>
+      </c>
+      <c r="L16">
+        <v>27.525300000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.72150000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1141,11 +1183,20 @@
       <c r="I17" s="3">
         <v>0.64800000000000002</v>
       </c>
-      <c r="K17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>152.29939999999999</v>
+      </c>
+      <c r="L17">
+        <v>26.303799999999999</v>
+      </c>
+      <c r="M17">
+        <v>0.6542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1173,11 +1224,20 @@
       <c r="I18" s="3">
         <v>0.70299999999999996</v>
       </c>
-      <c r="K18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>103.09180000000001</v>
+      </c>
+      <c r="L18">
+        <v>27.9986</v>
+      </c>
+      <c r="M18">
+        <v>0.70389999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1205,11 +1265,20 @@
       <c r="I19" s="3">
         <v>0.69799999999999995</v>
       </c>
-      <c r="K19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>118.7346</v>
+      </c>
+      <c r="L19">
+        <v>27.385000000000002</v>
+      </c>
+      <c r="M19">
+        <v>0.69640000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1237,11 +1306,20 @@
       <c r="I20" s="3">
         <v>0.746</v>
       </c>
-      <c r="K20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>47</v>
+      </c>
+      <c r="K20">
+        <v>224.6414</v>
+      </c>
+      <c r="L20">
+        <v>24.6159</v>
+      </c>
+      <c r="M20">
+        <v>0.71489999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1269,11 +1347,20 @@
       <c r="I21" s="3">
         <v>0.75700000000000001</v>
       </c>
-      <c r="K21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>112.6387</v>
+      </c>
+      <c r="L21">
+        <v>27.613900000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.75290000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1301,11 +1388,20 @@
       <c r="I22" s="3">
         <v>0.75900000000000001</v>
       </c>
-      <c r="K22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>27</v>
+      </c>
+      <c r="K22">
+        <v>180.3546</v>
+      </c>
+      <c r="L22">
+        <v>25.569500000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.73219999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1333,11 +1429,20 @@
       <c r="I23" s="3">
         <v>0.74299999999999999</v>
       </c>
-      <c r="K23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>98.41</v>
+      </c>
+      <c r="L23">
+        <v>28.200399999999998</v>
+      </c>
+      <c r="M23">
+        <v>0.74070000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
@@ -1365,11 +1470,20 @@
       <c r="I24" s="3">
         <v>0.76100000000000001</v>
       </c>
-      <c r="K24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>87.922600000000003</v>
+      </c>
+      <c r="L24">
+        <v>28.270700000000001</v>
+      </c>
+      <c r="M24">
+        <v>0.76149999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1397,11 +1511,20 @@
       <c r="I25" s="3">
         <v>0.75900000000000001</v>
       </c>
-      <c r="K25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>89.163700000000006</v>
+      </c>
+      <c r="L25">
+        <v>28.628900000000002</v>
+      </c>
+      <c r="M25">
+        <v>0.75670000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1429,11 +1552,20 @@
       <c r="I26" s="3">
         <v>0.68700000000000006</v>
       </c>
-      <c r="K26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <v>146.86770000000001</v>
+      </c>
+      <c r="L26">
+        <v>26.461500000000001</v>
+      </c>
+      <c r="M26">
+        <v>0.68569999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1461,11 +1593,20 @@
       <c r="I27" s="3">
         <v>0.76300000000000001</v>
       </c>
-      <c r="K27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>87.252899999999997</v>
+      </c>
+      <c r="L27">
+        <v>28.722999999999999</v>
+      </c>
+      <c r="M27">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1493,11 +1634,20 @@
       <c r="I28" s="3">
         <v>0.73499999999999999</v>
       </c>
-      <c r="K28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>104.5967</v>
+      </c>
+      <c r="L28">
+        <v>27.935600000000001</v>
+      </c>
+      <c r="M28">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1525,11 +1675,20 @@
       <c r="I29" s="3">
         <v>0.55200000000000005</v>
       </c>
-      <c r="K29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>320.61169999999998</v>
+      </c>
+      <c r="L29">
+        <v>23.071000000000002</v>
+      </c>
+      <c r="M29">
+        <v>0.56669999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1557,11 +1716,20 @@
       <c r="I30" s="3">
         <v>0.58699999999999997</v>
       </c>
-      <c r="K30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>190.1104</v>
+      </c>
+      <c r="L30">
+        <v>25.340699999999998</v>
+      </c>
+      <c r="M30">
+        <v>0.60529999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1589,11 +1757,20 @@
       <c r="I31" s="3">
         <v>0.55900000000000005</v>
       </c>
-      <c r="K31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>45</v>
+      </c>
+      <c r="K31">
+        <v>249.56710000000001</v>
+      </c>
+      <c r="L31">
+        <v>24.158899999999999</v>
+      </c>
+      <c r="M31">
+        <v>0.58150000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1621,11 +1798,20 @@
       <c r="I32" s="3">
         <v>0.59499999999999997</v>
       </c>
-      <c r="K32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>167.9014</v>
+      </c>
+      <c r="L32">
+        <v>25.880299999999998</v>
+      </c>
+      <c r="M32">
+        <v>0.60209999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>19</v>
       </c>
@@ -1653,11 +1839,20 @@
       <c r="I33" s="3">
         <v>0.61</v>
       </c>
-      <c r="K33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>156.2927</v>
+      </c>
+      <c r="L33">
+        <v>26.191400000000002</v>
+      </c>
+      <c r="M33">
+        <v>0.61429999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1685,11 +1880,20 @@
       <c r="I34" s="3">
         <v>0.60799999999999998</v>
       </c>
-      <c r="K34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>157.51939999999999</v>
+      </c>
+      <c r="L34">
+        <v>26.157499999999999</v>
+      </c>
+      <c r="M34">
+        <v>0.61260000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1717,11 +1921,20 @@
       <c r="I35" s="3">
         <v>0.54500000000000004</v>
       </c>
-      <c r="K35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>224.61109999999999</v>
+      </c>
+      <c r="L35">
+        <v>24.616499999999998</v>
+      </c>
+      <c r="M35">
+        <v>0.54520000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1749,11 +1962,20 @@
       <c r="I36" s="3">
         <v>0.61099999999999999</v>
       </c>
-      <c r="K36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>155.7081</v>
+      </c>
+      <c r="L36">
+        <v>26.207699999999999</v>
+      </c>
+      <c r="M36">
+        <v>0.61509999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1781,16 +2003,21 @@
       <c r="I37" s="3">
         <v>0.59</v>
       </c>
-      <c r="K37" t="s">
-        <v>61</v>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>177.9042</v>
+      </c>
+      <c r="L37">
+        <v>25.295000000000002</v>
+      </c>
+      <c r="M37">
+        <v>0.56210000000000004</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I37" xr:uid="{EA99F5D4-17E7-4E3A-AD12-CAED7081E540}">
-    <sortState ref="A2:B37">
-      <sortCondition ref="A20"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:M1" xr:uid="{E1048CE1-163E-9243-951A-AD61112252EC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/matlab/scripts/optimal_log/Initial_data_analysis.xlsx
+++ b/matlab/scripts/optimal_log/Initial_data_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cko/repos/school/Polya_Restoration/matlab/scripts/optimal_log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB7A42F-DB8B-7B49-BC27-B745A8E1D12C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C48EB49-3442-B349-93FA-EE97E35441AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17560" xr2:uid="{F5EC45BB-9BF6-4592-8A54-61375F823C90}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">New!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Old!$A$1:$I$37</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="32">
   <si>
     <t>Noise Type</t>
   </si>
@@ -112,12 +112,27 @@
   <si>
     <t>N</t>
   </si>
+  <si>
+    <t>Δ MSE</t>
+  </si>
+  <si>
+    <t>Δ PSNR</t>
+  </si>
+  <si>
+    <t>Δ SSIM</t>
+  </si>
+  <si>
+    <t>% change MSE</t>
+  </si>
+  <si>
+    <t>% change PSNR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,13 +149,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,18 +191,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,20 +520,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC43DABC-DBC5-8947-9323-9B71ED88D465}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="topRight" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,20 +576,35 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -568,20 +632,40 @@
       <c r="I2" s="3">
         <v>0.51300000000000001</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <v>50</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="5">
         <v>659.07709999999997</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5">
         <v>19.941400000000002</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="5">
         <v>0.55569999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <f>K2-G2</f>
+        <v>69.553099999999972</v>
+      </c>
+      <c r="O2">
+        <f>L2-H2</f>
+        <v>-0.48459999999999681</v>
+      </c>
+      <c r="P2">
+        <f>M2-I2</f>
+        <v>4.269999999999996E-2</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>N2/K2</f>
+        <v>0.10553105243680895</v>
+      </c>
+      <c r="R2" s="8">
+        <f>O2/L2</f>
+        <v>-2.4301202523393382E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -609,20 +693,40 @@
       <c r="I3" s="3">
         <v>0.62</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5">
         <v>364.73599999999999</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <v>22.222200000000001</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5">
         <v>0.5494</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <f t="shared" ref="N3:N37" si="0">K3-G3</f>
+        <v>49.993999999999971</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O37" si="1">L3-H3</f>
+        <v>-0.92879999999999896</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P37" si="2">M3-I3</f>
+        <v>-7.0599999999999996E-2</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" ref="Q3:Q37" si="3">N3/K3</f>
+        <v>0.13706900333391817</v>
+      </c>
+      <c r="R3" s="8">
+        <f t="shared" ref="R3:R37" si="4">O3/L3</f>
+        <v>-4.1796041796041745E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -650,20 +754,40 @@
       <c r="I4" s="3">
         <v>0.55700000000000005</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>50</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <v>547.18809999999996</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <v>20.749400000000001</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="5">
         <v>0.57210000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>47.103099999999984</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>-0.39059999999999917</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>1.5100000000000002E-2</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" si="3"/>
+        <v>8.6082098642130539E-2</v>
+      </c>
+      <c r="R4" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.8824640712502488E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -691,20 +815,40 @@
       <c r="I5" s="3">
         <v>0.61799999999999999</v>
       </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5">
         <v>310.15129999999999</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>22.371300000000002</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <v>0.55010000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>31.041299999999978</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>-1.3016999999999967</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>-6.789999999999996E-2</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="3"/>
+        <v>0.10008437817284654</v>
+      </c>
+      <c r="R5" s="8">
+        <f t="shared" si="4"/>
+        <v>-5.818615815799693E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -732,20 +876,40 @@
       <c r="I6" s="3">
         <v>0.63100000000000001</v>
       </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
         <v>295.67869999999999</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <v>22.479700000000001</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="5">
         <v>0.55700000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>35.677700000000016</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>-1.5013000000000005</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>-7.3999999999999955E-2</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="3"/>
+        <v>0.12066374750700681</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="4"/>
+        <v>-6.6784699084062524E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -773,20 +937,40 @@
       <c r="I7" s="3">
         <v>0.629</v>
       </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
+      <c r="J7" s="5">
+        <v>2</v>
+      </c>
+      <c r="K7" s="5">
         <v>297.42380000000003</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <v>22.468499999999999</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <v>0.55630000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>33.665800000000047</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>-1.4505000000000017</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>-7.2699999999999987E-2</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="3"/>
+        <v>0.11319134514453801</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="4"/>
+        <v>-6.4557046531811282E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -814,20 +998,40 @@
       <c r="I8" s="3">
         <v>0.54200000000000004</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <v>4</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <v>451.83010000000002</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>21.468499999999999</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>0.50770000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>42.164100000000019</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>-0.53750000000000142</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>-3.4299999999999997E-2</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="3"/>
+        <v>9.3318484093910553E-2</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.5036681649859165E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -855,20 +1059,40 @@
       <c r="I9" s="3">
         <v>0.63100000000000001</v>
       </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5">
         <v>294.51299999999998</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <v>22.484400000000001</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="5">
         <v>0.55730000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>33.764999999999986</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>-1.4846000000000004</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>-7.3699999999999988E-2</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="3"/>
+        <v>0.11464689164824639</v>
+      </c>
+      <c r="R9" s="8">
+        <f t="shared" si="4"/>
+        <v>-6.6028001636690342E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -896,20 +1120,40 @@
       <c r="I10" s="3">
         <v>0.58899999999999997</v>
       </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="5">
+        <v>2</v>
+      </c>
+      <c r="K10" s="5">
         <v>343.2072</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <v>22.138200000000001</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="5">
         <v>0.55169999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>28.030199999999979</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>-1.0067999999999984</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>-3.73E-2</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="3"/>
+        <v>8.1671363537827821E-2</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" si="4"/>
+        <v>-4.5477952137030035E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -937,20 +1181,40 @@
       <c r="I11" s="3">
         <v>0.70399999999999996</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <v>50</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <v>217.5027</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <v>24.7562</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="5">
         <v>0.68659999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>34.603700000000003</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>-0.75280000000000058</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>-1.7399999999999971E-2</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.15909549628579325</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="4"/>
+        <v>-3.0408544122280504E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -978,20 +1242,40 @@
       <c r="I12" s="3">
         <v>0.69299999999999995</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <v>4</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <v>127.61069999999999</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <v>27.071899999999999</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="5">
         <v>0.70479999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>16.668700000000001</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>-0.60810000000000031</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>1.1800000000000033E-2</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" si="3"/>
+        <v>0.13062149177145804</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.2462405667869646E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1019,20 +1303,40 @@
       <c r="I13" s="3">
         <v>0.71599999999999997</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <v>37</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <v>185.97309999999999</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <v>25.436299999999999</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="5">
         <v>0.70430000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>28.589100000000002</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>-0.72470000000000212</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>-1.1699999999999933E-2</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="3"/>
+        <v>0.15372707128073901</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.8490778926180387E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1060,20 +1364,40 @@
       <c r="I14" s="3">
         <v>0.69099999999999995</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="5">
         <v>4</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <v>113.9014</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="5">
         <v>27.5655</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="5">
         <v>0.69410000000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>5.9883999999999986</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>-0.2345000000000006</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>3.1000000000001027E-3</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="3"/>
+        <v>5.2575297581943674E-2</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="4"/>
+        <v>-8.5070105748127397E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1101,20 +1425,40 @@
       <c r="I15" s="3">
         <v>0.70199999999999996</v>
       </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
+      <c r="J15" s="5">
+        <v>3</v>
+      </c>
+      <c r="K15" s="5">
         <v>103.6925</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="5">
         <v>27.5503</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="5">
         <v>0.72319999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>6.1255000000000024</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>-0.68769999999999953</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>2.1199999999999997E-2</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="3"/>
+        <v>5.9073703498324401E-2</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.4961615662987317E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1142,20 +1486,40 @@
       <c r="I16" s="3">
         <v>0.69799999999999995</v>
       </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16">
+      <c r="J16" s="5">
+        <v>3</v>
+      </c>
+      <c r="K16" s="5">
         <v>104.7821</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="5">
         <v>27.525300000000001</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="5">
         <v>0.72150000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>6.0910999999999973</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>-0.6626999999999974</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>2.3500000000000076E-2</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="3"/>
+        <v>5.8131112088801402E-2</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.4076031868862369E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1183,20 +1547,40 @@
       <c r="I17" s="3">
         <v>0.64800000000000002</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="5">
         <v>8</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="5">
         <v>152.29939999999999</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="5">
         <v>26.303799999999999</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="5">
         <v>0.6542</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>11.445399999999978</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>-0.33920000000000172</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>6.1999999999999833E-3</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" si="3"/>
+        <v>7.5150657192345982E-2</v>
+      </c>
+      <c r="R17" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.2895475178491387E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1224,20 +1608,40 @@
       <c r="I18" s="3">
         <v>0.70299999999999996</v>
       </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
+      <c r="J18" s="5">
+        <v>3</v>
+      </c>
+      <c r="K18" s="5">
         <v>103.09180000000001</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="5">
         <v>27.9986</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="5">
         <v>0.70389999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>5.4998000000000076</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>-0.23839999999999861</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>9.000000000000119E-4</v>
+      </c>
+      <c r="Q18" s="8">
+        <f t="shared" si="3"/>
+        <v>5.3348568945347806E-2</v>
+      </c>
+      <c r="R18" s="8">
+        <f t="shared" si="4"/>
+        <v>-8.5147114498581571E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1265,20 +1669,40 @@
       <c r="I19" s="3">
         <v>0.69799999999999995</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="5">
         <v>5</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="5">
         <v>118.7346</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="5">
         <v>27.385000000000002</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="5">
         <v>0.69640000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>7.8996000000000066</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>-0.29899999999999949</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>-1.5999999999999348E-3</v>
+      </c>
+      <c r="Q19" s="8">
+        <f t="shared" si="3"/>
+        <v>6.6531575463260134E-2</v>
+      </c>
+      <c r="R19" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.0918385977725013E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1306,20 +1730,40 @@
       <c r="I20" s="3">
         <v>0.746</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="5">
         <v>47</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="5">
         <v>224.6414</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="5">
         <v>24.6159</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="5">
         <v>0.71489999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>28.935400000000016</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>-0.59909999999999997</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>-3.1100000000000017E-2</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" si="3"/>
+        <v>0.12880706761977095</v>
+      </c>
+      <c r="R20" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.4337927924634076E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1347,20 +1791,40 @@
       <c r="I21" s="3">
         <v>0.75700000000000001</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="5">
         <v>6</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="5">
         <v>112.6387</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="5">
         <v>27.613900000000001</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="5">
         <v>0.75290000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>16.128699999999995</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>-0.67109999999999914</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>-4.0999999999999925E-3</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="3"/>
+        <v>0.14318968525027362</v>
+      </c>
+      <c r="R21" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.4302977848112695E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1388,20 +1852,40 @@
       <c r="I22" s="3">
         <v>0.75900000000000001</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="5">
         <v>27</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="5">
         <v>180.3546</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="5">
         <v>25.569500000000001</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="5">
         <v>0.73219999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>24.808600000000013</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>-0.64249999999999829</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>-2.6800000000000046E-2</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="3"/>
+        <v>0.13755457304665372</v>
+      </c>
+      <c r="R22" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.5127593421850183E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1429,20 +1913,40 @@
       <c r="I23" s="3">
         <v>0.74299999999999999</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="5">
         <v>5</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="5">
         <v>98.41</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="5">
         <v>28.200399999999998</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="5">
         <v>0.74070000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>5.4279999999999973</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>-0.24660000000000082</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>-2.2999999999999687E-3</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="3"/>
+        <v>5.5156996240219462E-2</v>
+      </c>
+      <c r="R23" s="8">
+        <f t="shared" si="4"/>
+        <v>-8.7445568147969822E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
@@ -1470,20 +1974,40 @@
       <c r="I24" s="3">
         <v>0.76100000000000001</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="5">
         <v>4</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="5">
         <v>87.922600000000003</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="5">
         <v>28.270700000000001</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="5">
         <v>0.76149999999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>5.1246000000000009</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>-0.68029999999999902</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>4.9999999999994493E-4</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" si="3"/>
+        <v>5.8285355528612671E-2</v>
+      </c>
+      <c r="R24" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.4063783351667947E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1511,20 +2035,40 @@
       <c r="I25" s="3">
         <v>0.75900000000000001</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="5">
         <v>5</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="5">
         <v>89.163700000000006</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="5">
         <v>28.628900000000002</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="5">
         <v>0.75670000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>5.2697000000000003</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>-0.26409999999999911</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>-2.2999999999999687E-3</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" si="3"/>
+        <v>5.9101405616859774E-2</v>
+      </c>
+      <c r="R25" s="8">
+        <f t="shared" si="4"/>
+        <v>-9.2249440250934921E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1552,20 +2096,40 @@
       <c r="I26" s="3">
         <v>0.68700000000000006</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="5">
         <v>8</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="5">
         <v>146.86770000000001</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="5">
         <v>26.461500000000001</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="5">
         <v>0.68569999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>12.055700000000002</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>-0.37249999999999872</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>-1.3000000000000789E-3</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" si="3"/>
+        <v>8.2085441523221239E-2</v>
+      </c>
+      <c r="R26" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.4077055344557138E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1593,20 +2157,40 @@
       <c r="I27" s="3">
         <v>0.76300000000000001</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="5">
         <v>5</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="5">
         <v>87.252899999999997</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="5">
         <v>28.722999999999999</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="5">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>5.1668999999999983</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>-0.26500000000000057</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="Q27" s="8">
+        <f t="shared" si="3"/>
+        <v>5.9217515979411557E-2</v>
+      </c>
+      <c r="R27" s="8">
+        <f t="shared" si="4"/>
+        <v>-9.2260557741183219E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1634,20 +2218,40 @@
       <c r="I28" s="3">
         <v>0.73499999999999999</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="5">
         <v>6</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="5">
         <v>104.5967</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="5">
         <v>27.935600000000001</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="5">
         <v>0.73599999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>7.0756999999999977</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>-0.30439999999999756</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="Q28" s="8">
+        <f t="shared" si="3"/>
+        <v>6.7647449680534835E-2</v>
+      </c>
+      <c r="R28" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.0896490499577513E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1675,20 +2279,40 @@
       <c r="I29" s="3">
         <v>0.55200000000000005</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="5">
         <v>50</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="5">
         <v>320.61169999999998</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="5">
         <v>23.071000000000002</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="5">
         <v>0.56669999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>27.898699999999963</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>-0.39499999999999957</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>1.4699999999999935E-2</v>
+      </c>
+      <c r="Q29" s="8">
+        <f t="shared" si="3"/>
+        <v>8.7017098876927962E-2</v>
+      </c>
+      <c r="R29" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.7121061072341882E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1716,20 +2340,40 @@
       <c r="I30" s="3">
         <v>0.58699999999999997</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="5">
         <v>4</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="5">
         <v>190.1104</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="5">
         <v>25.340699999999998</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="5">
         <v>0.60529999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>5.4843999999999937</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>-0.12730000000000175</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>1.8299999999999983E-2</v>
+      </c>
+      <c r="Q30" s="8">
+        <f t="shared" si="3"/>
+        <v>2.8848500660668717E-2</v>
+      </c>
+      <c r="R30" s="8">
+        <f t="shared" si="4"/>
+        <v>-5.0235392076778363E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1757,20 +2401,40 @@
       <c r="I31" s="3">
         <v>0.55900000000000005</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="5">
         <v>45</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="5">
         <v>249.56710000000001</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="5">
         <v>24.158899999999999</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="5">
         <v>0.58150000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>1.782100000000014</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>-3.1100000000002126E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>2.2499999999999964E-2</v>
+      </c>
+      <c r="Q31" s="8">
+        <f t="shared" si="3"/>
+        <v>7.1407649485850256E-3</v>
+      </c>
+      <c r="R31" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.2873102666099089E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1798,20 +2462,40 @@
       <c r="I32" s="3">
         <v>0.59499999999999997</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="5">
         <v>4</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="5">
         <v>167.9014</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="5">
         <v>25.880299999999998</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="5">
         <v>0.60209999999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>2.0803999999999974</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>-5.3700000000002746E-2</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>7.0999999999999952E-3</v>
+      </c>
+      <c r="Q32" s="8">
+        <f t="shared" si="3"/>
+        <v>1.2390605438668155E-2</v>
+      </c>
+      <c r="R32" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.0749373075274534E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>19</v>
       </c>
@@ -1839,20 +2523,40 @@
       <c r="I33" s="3">
         <v>0.61</v>
       </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
-      <c r="K33">
+      <c r="J33" s="5">
+        <v>3</v>
+      </c>
+      <c r="K33" s="5">
         <v>156.2927</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="5">
         <v>26.191400000000002</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="5">
         <v>0.61429999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>2.0126999999999953</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>-5.659999999999954E-2</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>4.2999999999999705E-3</v>
+      </c>
+      <c r="Q33" s="8">
+        <f t="shared" si="3"/>
+        <v>1.2877760765537963E-2</v>
+      </c>
+      <c r="R33" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.1610146842093031E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1880,20 +2584,40 @@
       <c r="I34" s="3">
         <v>0.60799999999999998</v>
       </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
-      <c r="K34">
+      <c r="J34" s="5">
+        <v>3</v>
+      </c>
+      <c r="K34" s="5">
         <v>157.51939999999999</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="5">
         <v>26.157499999999999</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="5">
         <v>0.61260000000000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>2.0173999999999808</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>-5.5500000000002103E-2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>4.6000000000000485E-3</v>
+      </c>
+      <c r="Q34" s="8">
+        <f t="shared" si="3"/>
+        <v>1.2807311353395079E-2</v>
+      </c>
+      <c r="R34" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.1217624008411395E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1921,20 +2645,40 @@
       <c r="I35" s="3">
         <v>0.54500000000000004</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="5">
         <v>8</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="5">
         <v>224.61109999999999</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="5">
         <v>24.616499999999998</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="5">
         <v>0.54520000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>9.044099999999986</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>-0.17850000000000321</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>1.9999999999997797E-4</v>
+      </c>
+      <c r="Q35" s="8">
+        <f t="shared" si="3"/>
+        <v>4.0265596847172673E-2</v>
+      </c>
+      <c r="R35" s="8">
+        <f t="shared" si="4"/>
+        <v>-7.2512339284627478E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1962,20 +2706,40 @@
       <c r="I36" s="3">
         <v>0.61099999999999999</v>
       </c>
-      <c r="J36">
-        <v>3</v>
-      </c>
-      <c r="K36">
+      <c r="J36" s="5">
+        <v>3</v>
+      </c>
+      <c r="K36" s="5">
         <v>155.7081</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="5">
         <v>26.207699999999999</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="5">
         <v>0.61509999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>2.0870999999999924</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>-5.829999999999913E-2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>4.0999999999999925E-3</v>
+      </c>
+      <c r="Q36" s="8">
+        <f t="shared" si="3"/>
+        <v>1.3403926963337118E-2</v>
+      </c>
+      <c r="R36" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.2245370635347295E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2003,17 +2767,37 @@
       <c r="I37" s="3">
         <v>0.59</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="5">
         <v>4</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="5">
         <v>177.9042</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="5">
         <v>25.295000000000002</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="5">
         <v>0.56210000000000004</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>4.357200000000006</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>-0.44199999999999662</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>-2.7899999999999925E-2</v>
+      </c>
+      <c r="Q37" s="8">
+        <f t="shared" si="3"/>
+        <v>2.4491833245083625E-2</v>
+      </c>
+      <c r="R37" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.7473809053172428E-2</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/scripts/optimal_log/Initial_data_analysis.xlsx
+++ b/matlab/scripts/optimal_log/Initial_data_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cko/repos/school/Polya_Restoration/matlab/scripts/optimal_log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C48EB49-3442-B349-93FA-EE97E35441AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D92B0F-76FB-5E41-A32A-654B37CC4CD7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17560" xr2:uid="{F5EC45BB-9BF6-4592-8A54-61375F823C90}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Old" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">New!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">New!$A$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Old!$A$1:$I$37</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="35">
   <si>
     <t>Noise Type</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>% change PSNR</t>
+  </si>
+  <si>
+    <t>Initial MSE</t>
+  </si>
+  <si>
+    <t>Bit Error Rate</t>
+  </si>
+  <si>
+    <t>ENL</t>
   </si>
 </sst>
 </file>
@@ -520,2288 +529,2513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC43DABC-DBC5-8947-9323-9B71ED88D465}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V11" sqref="V11"/>
+      <selection pane="topRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2">
+        <v>3838.1801</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3">
         <v>32</v>
       </c>
-      <c r="E2" s="3">
-        <v>100</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="H2" s="3">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3">
         <v>6</v>
       </c>
-      <c r="G2" s="3">
+      <c r="J2" s="3">
         <v>589.524</v>
       </c>
-      <c r="H2" s="3">
+      <c r="K2" s="3">
         <v>20.425999999999998</v>
       </c>
-      <c r="I2" s="3">
+      <c r="L2" s="3">
         <v>0.51300000000000001</v>
       </c>
-      <c r="J2" s="5">
+      <c r="M2" s="5">
         <v>50</v>
       </c>
-      <c r="K2" s="5">
+      <c r="N2" s="5">
         <v>659.07709999999997</v>
       </c>
-      <c r="L2" s="5">
+      <c r="O2" s="5">
         <v>19.941400000000002</v>
       </c>
-      <c r="M2" s="5">
+      <c r="P2" s="5">
         <v>0.55569999999999997</v>
       </c>
-      <c r="N2">
-        <f>K2-G2</f>
+      <c r="Q2">
+        <f>N2-J2</f>
         <v>69.553099999999972</v>
       </c>
-      <c r="O2">
-        <f>L2-H2</f>
+      <c r="R2">
+        <f>O2-K2</f>
         <v>-0.48459999999999681</v>
       </c>
-      <c r="P2">
-        <f>M2-I2</f>
+      <c r="S2">
+        <f>P2-L2</f>
         <v>4.269999999999996E-2</v>
       </c>
-      <c r="Q2" s="8">
-        <f>N2/K2</f>
+      <c r="T2" s="8">
+        <f>Q2/N2</f>
         <v>0.10553105243680895</v>
       </c>
-      <c r="R2" s="8">
-        <f>O2/L2</f>
+      <c r="U2" s="8">
+        <f>R2/O2</f>
         <v>-2.4301202523393382E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3">
+        <v>1414.6353999999999</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
         <v>256</v>
       </c>
-      <c r="E3" s="3">
-        <v>100</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
+        <v>100</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3">
         <v>314.74200000000002</v>
       </c>
-      <c r="H3" s="3">
+      <c r="K3" s="3">
         <v>23.151</v>
       </c>
-      <c r="I3" s="3">
+      <c r="L3" s="3">
         <v>0.62</v>
       </c>
-      <c r="J3" s="5">
-        <v>2</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="M3" s="5">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5">
         <v>364.73599999999999</v>
       </c>
-      <c r="L3" s="5">
+      <c r="O3" s="5">
         <v>22.222200000000001</v>
       </c>
-      <c r="M3" s="5">
+      <c r="P3" s="5">
         <v>0.5494</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N37" si="0">K3-G3</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q37" si="0">N3-J3</f>
         <v>49.993999999999971</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O37" si="1">L3-H3</f>
+      <c r="R3">
+        <f t="shared" ref="R3:R37" si="1">O3-K3</f>
         <v>-0.92879999999999896</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P37" si="2">M3-I3</f>
+      <c r="S3">
+        <f t="shared" ref="S3:S37" si="2">P3-L3</f>
         <v>-7.0599999999999996E-2</v>
       </c>
-      <c r="Q3" s="8">
-        <f t="shared" ref="Q3:Q37" si="3">N3/K3</f>
+      <c r="T3" s="8">
+        <f t="shared" ref="T3:T37" si="3">Q3/N3</f>
         <v>0.13706900333391817</v>
       </c>
-      <c r="R3" s="8">
-        <f t="shared" ref="R3:R37" si="4">O3/L3</f>
+      <c r="U3" s="8">
+        <f t="shared" ref="U3:U37" si="4">R3/O3</f>
         <v>-4.1796041796041745E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4">
+        <v>2783.5153</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
         <v>128</v>
       </c>
-      <c r="E4" s="3">
-        <v>100</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
+        <v>100</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
         <v>500.08499999999998</v>
       </c>
-      <c r="H4" s="3">
+      <c r="K4" s="3">
         <v>21.14</v>
       </c>
-      <c r="I4" s="3">
+      <c r="L4" s="3">
         <v>0.55700000000000005</v>
       </c>
-      <c r="J4" s="5">
+      <c r="M4" s="5">
         <v>50</v>
       </c>
-      <c r="K4" s="5">
+      <c r="N4" s="5">
         <v>547.18809999999996</v>
       </c>
-      <c r="L4" s="5">
+      <c r="O4" s="5">
         <v>20.749400000000001</v>
       </c>
-      <c r="M4" s="5">
+      <c r="P4" s="5">
         <v>0.57210000000000005</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <f t="shared" si="0"/>
         <v>47.103099999999984</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <f t="shared" si="1"/>
         <v>-0.39059999999999917</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <f t="shared" si="2"/>
         <v>1.5100000000000002E-2</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="T4" s="8">
         <f t="shared" si="3"/>
         <v>8.6082098642130539E-2</v>
       </c>
-      <c r="R4" s="8">
+      <c r="U4" s="8">
         <f t="shared" si="4"/>
         <v>-1.8824640712502488E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
+        <v>823.60310000000004</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="G5" s="3">
         <v>64</v>
       </c>
-      <c r="E5" s="3">
+      <c r="H5" s="3">
         <v>160</v>
       </c>
-      <c r="F5" s="3">
+      <c r="I5" s="3">
         <v>10</v>
       </c>
-      <c r="G5" s="3">
+      <c r="J5" s="3">
         <v>279.11</v>
       </c>
-      <c r="H5" s="3">
+      <c r="K5" s="3">
         <v>23.672999999999998</v>
       </c>
-      <c r="I5" s="3">
+      <c r="L5" s="3">
         <v>0.61799999999999999</v>
       </c>
-      <c r="J5" s="5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="M5" s="5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5">
         <v>310.15129999999999</v>
       </c>
-      <c r="L5" s="5">
+      <c r="O5" s="5">
         <v>22.371300000000002</v>
       </c>
-      <c r="M5" s="5">
+      <c r="P5" s="5">
         <v>0.55010000000000003</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>31.041299999999978</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <f t="shared" si="1"/>
         <v>-1.3016999999999967</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <f t="shared" si="2"/>
         <v>-6.789999999999996E-2</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="T5" s="8">
         <f t="shared" si="3"/>
         <v>0.10008437817284654</v>
       </c>
-      <c r="R5" s="8">
+      <c r="U5" s="8">
         <f t="shared" si="4"/>
         <v>-5.818615815799693E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
+        <v>787.52650000000006</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="G6" s="3">
         <v>128</v>
       </c>
-      <c r="E6" s="3">
+      <c r="H6" s="3">
         <v>120</v>
       </c>
-      <c r="F6" s="3">
+      <c r="I6" s="3">
         <v>10</v>
       </c>
-      <c r="G6" s="3">
+      <c r="J6" s="3">
         <v>260.00099999999998</v>
       </c>
-      <c r="H6" s="3">
+      <c r="K6" s="3">
         <v>23.981000000000002</v>
       </c>
-      <c r="I6" s="3">
+      <c r="L6" s="3">
         <v>0.63100000000000001</v>
       </c>
-      <c r="J6" s="5">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="M6" s="5">
+        <v>2</v>
+      </c>
+      <c r="N6" s="5">
         <v>295.67869999999999</v>
       </c>
-      <c r="L6" s="5">
+      <c r="O6" s="5">
         <v>22.479700000000001</v>
       </c>
-      <c r="M6" s="5">
+      <c r="P6" s="5">
         <v>0.55700000000000005</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>35.677700000000016</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <f t="shared" si="1"/>
         <v>-1.5013000000000005</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <f t="shared" si="2"/>
         <v>-7.3999999999999955E-2</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="T6" s="8">
         <f t="shared" si="3"/>
         <v>0.12066374750700681</v>
       </c>
-      <c r="R6" s="8">
+      <c r="U6" s="8">
         <f t="shared" si="4"/>
         <v>-6.6784699084062524E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
+        <v>790.45280000000002</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="G7" s="3">
         <v>128</v>
       </c>
-      <c r="E7" s="3">
+      <c r="H7" s="3">
         <v>120</v>
       </c>
-      <c r="F7" s="3">
+      <c r="I7" s="3">
         <v>10</v>
       </c>
-      <c r="G7" s="3">
+      <c r="J7" s="3">
         <v>263.75799999999998</v>
       </c>
-      <c r="H7" s="3">
+      <c r="K7" s="3">
         <v>23.919</v>
       </c>
-      <c r="I7" s="3">
+      <c r="L7" s="3">
         <v>0.629</v>
       </c>
-      <c r="J7" s="5">
-        <v>2</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="M7" s="5">
+        <v>2</v>
+      </c>
+      <c r="N7" s="5">
         <v>297.42380000000003</v>
       </c>
-      <c r="L7" s="5">
+      <c r="O7" s="5">
         <v>22.468499999999999</v>
       </c>
-      <c r="M7" s="5">
+      <c r="P7" s="5">
         <v>0.55630000000000002</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <f t="shared" si="0"/>
         <v>33.665800000000047</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <f t="shared" si="1"/>
         <v>-1.4505000000000017</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <f t="shared" si="2"/>
         <v>-7.2699999999999987E-2</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="T7" s="8">
         <f t="shared" si="3"/>
         <v>0.11319134514453801</v>
       </c>
-      <c r="R7" s="8">
+      <c r="U7" s="8">
         <f t="shared" si="4"/>
         <v>-6.4557046531811282E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8">
+        <v>1651.6928</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
         <v>256</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>6</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>409.666</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>22.006</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>0.54200000000000004</v>
       </c>
-      <c r="J8" s="5">
+      <c r="M8" s="5">
         <v>4</v>
       </c>
-      <c r="K8" s="5">
+      <c r="N8" s="5">
         <v>451.83010000000002</v>
       </c>
-      <c r="L8" s="5">
+      <c r="O8" s="5">
         <v>21.468499999999999</v>
       </c>
-      <c r="M8" s="5">
+      <c r="P8" s="5">
         <v>0.50770000000000004</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <f t="shared" si="0"/>
         <v>42.164100000000019</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <f t="shared" si="1"/>
         <v>-0.53750000000000142</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <f t="shared" si="2"/>
         <v>-3.4299999999999997E-2</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="T8" s="8">
         <f t="shared" si="3"/>
         <v>9.3318484093910553E-2</v>
       </c>
-      <c r="R8" s="8">
+      <c r="U8" s="8">
         <f t="shared" si="4"/>
         <v>-2.5036681649859165E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
+        <v>788.12850000000003</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="G9" s="3">
         <v>256</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>140</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>10</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>260.74799999999999</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>23.969000000000001</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>0.63100000000000001</v>
       </c>
-      <c r="J9" s="5">
-        <v>2</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="M9" s="5">
+        <v>2</v>
+      </c>
+      <c r="N9" s="5">
         <v>294.51299999999998</v>
       </c>
-      <c r="L9" s="5">
+      <c r="O9" s="5">
         <v>22.484400000000001</v>
       </c>
-      <c r="M9" s="5">
+      <c r="P9" s="5">
         <v>0.55730000000000002</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <f t="shared" si="0"/>
         <v>33.764999999999986</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <f t="shared" si="1"/>
         <v>-1.4846000000000004</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <f t="shared" si="2"/>
         <v>-7.3699999999999988E-2</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="T9" s="8">
         <f t="shared" si="3"/>
         <v>0.11464689164824639</v>
       </c>
-      <c r="R9" s="8">
+      <c r="U9" s="8">
         <f t="shared" si="4"/>
         <v>-6.6028001636690342E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10">
+        <v>1038.6316999999999</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
         <v>64</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3">
         <v>315.17700000000002</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>23.145</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>0.58899999999999997</v>
       </c>
-      <c r="J10" s="5">
-        <v>2</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="M10" s="5">
+        <v>2</v>
+      </c>
+      <c r="N10" s="5">
         <v>343.2072</v>
       </c>
-      <c r="L10" s="5">
+      <c r="O10" s="5">
         <v>22.138200000000001</v>
       </c>
-      <c r="M10" s="5">
+      <c r="P10" s="5">
         <v>0.55169999999999997</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <f t="shared" si="0"/>
         <v>28.030199999999979</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <f t="shared" si="1"/>
         <v>-1.0067999999999984</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <f t="shared" si="2"/>
         <v>-3.73E-2</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="T10" s="8">
         <f t="shared" si="3"/>
         <v>8.1671363537827821E-2</v>
       </c>
-      <c r="R10" s="8">
+      <c r="U10" s="8">
         <f t="shared" si="4"/>
         <v>-4.5477952137030035E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11">
+        <v>1667.9771000000001</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
         <v>64</v>
       </c>
-      <c r="E11" s="3">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="H11" s="3">
+        <v>100</v>
+      </c>
+      <c r="I11" s="3">
         <v>6</v>
       </c>
-      <c r="G11" s="3">
+      <c r="J11" s="3">
         <v>182.899</v>
       </c>
-      <c r="H11" s="3">
+      <c r="K11" s="3">
         <v>25.509</v>
       </c>
-      <c r="I11" s="3">
+      <c r="L11" s="3">
         <v>0.70399999999999996</v>
       </c>
-      <c r="J11" s="5">
+      <c r="M11" s="5">
         <v>50</v>
       </c>
-      <c r="K11" s="5">
+      <c r="N11" s="5">
         <v>217.5027</v>
       </c>
-      <c r="L11" s="5">
+      <c r="O11" s="5">
         <v>24.7562</v>
       </c>
-      <c r="M11" s="5">
+      <c r="P11" s="5">
         <v>0.68659999999999999</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <f t="shared" si="0"/>
         <v>34.603700000000003</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <f t="shared" si="1"/>
         <v>-0.75280000000000058</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <f t="shared" si="2"/>
         <v>-1.7399999999999971E-2</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="T11" s="8">
         <f t="shared" si="3"/>
         <v>0.15909549628579325</v>
       </c>
-      <c r="R11" s="8">
+      <c r="U11" s="8">
         <f t="shared" si="4"/>
         <v>-3.0408544122280504E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12">
+        <v>661.21640000000002</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
         <v>128</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
         <v>110.94199999999999</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>27.68</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>0.69299999999999995</v>
       </c>
-      <c r="J12" s="5">
+      <c r="M12" s="5">
         <v>4</v>
       </c>
-      <c r="K12" s="5">
+      <c r="N12" s="5">
         <v>127.61069999999999</v>
       </c>
-      <c r="L12" s="5">
+      <c r="O12" s="5">
         <v>27.071899999999999</v>
       </c>
-      <c r="M12" s="5">
+      <c r="P12" s="5">
         <v>0.70479999999999998</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <f t="shared" si="0"/>
         <v>16.668700000000001</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <f t="shared" si="1"/>
         <v>-0.60810000000000031</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <f t="shared" si="2"/>
         <v>1.1800000000000033E-2</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="T12" s="8">
         <f t="shared" si="3"/>
         <v>0.13062149177145804</v>
       </c>
-      <c r="R12" s="8">
+      <c r="U12" s="8">
         <f t="shared" si="4"/>
         <v>-2.2462405667869646E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13">
+        <v>1249.7942</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
         <v>64</v>
       </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="H13" s="3">
+        <v>100</v>
+      </c>
+      <c r="I13" s="3">
         <v>7</v>
       </c>
-      <c r="G13" s="3">
+      <c r="J13" s="3">
         <v>157.38399999999999</v>
       </c>
-      <c r="H13" s="3">
+      <c r="K13" s="3">
         <v>26.161000000000001</v>
       </c>
-      <c r="I13" s="3">
+      <c r="L13" s="3">
         <v>0.71599999999999997</v>
       </c>
-      <c r="J13" s="5">
+      <c r="M13" s="5">
         <v>37</v>
       </c>
-      <c r="K13" s="5">
+      <c r="N13" s="5">
         <v>185.97309999999999</v>
       </c>
-      <c r="L13" s="5">
+      <c r="O13" s="5">
         <v>25.436299999999999</v>
       </c>
-      <c r="M13" s="5">
+      <c r="P13" s="5">
         <v>0.70430000000000004</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <f t="shared" si="0"/>
         <v>28.589100000000002</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <f t="shared" si="1"/>
         <v>-0.72470000000000212</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <f t="shared" si="2"/>
         <v>-1.1699999999999933E-2</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="T13" s="8">
         <f t="shared" si="3"/>
         <v>0.15372707128073901</v>
       </c>
-      <c r="R13" s="8">
+      <c r="U13" s="8">
         <f t="shared" si="4"/>
         <v>-2.8490778926180387E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14">
+        <v>454.9683</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
         <v>128</v>
       </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>107.913</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>27.8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>0.69099999999999995</v>
       </c>
-      <c r="J14" s="5">
+      <c r="M14" s="5">
         <v>4</v>
       </c>
-      <c r="K14" s="5">
+      <c r="N14" s="5">
         <v>113.9014</v>
       </c>
-      <c r="L14" s="5">
+      <c r="O14" s="5">
         <v>27.5655</v>
       </c>
-      <c r="M14" s="5">
+      <c r="P14" s="5">
         <v>0.69410000000000005</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <f t="shared" si="0"/>
         <v>5.9883999999999986</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <f t="shared" si="1"/>
         <v>-0.2345000000000006</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <f t="shared" si="2"/>
         <v>3.1000000000001027E-3</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="T14" s="8">
         <f t="shared" si="3"/>
         <v>5.2575297581943674E-2</v>
       </c>
-      <c r="R14" s="8">
+      <c r="U14" s="8">
         <f t="shared" si="4"/>
         <v>-8.5070105748127397E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15">
+        <v>402.68029999999999</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
         <v>256</v>
       </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>97.566999999999993</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
         <v>28.238</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>0.70199999999999996</v>
       </c>
-      <c r="J15" s="5">
-        <v>3</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="M15" s="5">
+        <v>3</v>
+      </c>
+      <c r="N15" s="5">
         <v>103.6925</v>
       </c>
-      <c r="L15" s="5">
+      <c r="O15" s="5">
         <v>27.5503</v>
       </c>
-      <c r="M15" s="5">
+      <c r="P15" s="5">
         <v>0.72319999999999995</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <f t="shared" si="0"/>
         <v>6.1255000000000024</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <f t="shared" si="1"/>
         <v>-0.68769999999999953</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <f t="shared" si="2"/>
         <v>2.1199999999999997E-2</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="T15" s="8">
         <f t="shared" si="3"/>
         <v>5.9073703498324401E-2</v>
       </c>
-      <c r="R15" s="8">
+      <c r="U15" s="8">
         <f t="shared" si="4"/>
         <v>-2.4961615662987317E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16">
+        <v>408.50029999999998</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
         <v>256</v>
       </c>
-      <c r="E16" s="3">
-        <v>100</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
+        <v>100</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
         <v>98.691000000000003</v>
       </c>
-      <c r="H16" s="3">
+      <c r="K16" s="3">
         <v>28.187999999999999</v>
       </c>
-      <c r="I16" s="3">
+      <c r="L16" s="3">
         <v>0.69799999999999995</v>
       </c>
-      <c r="J16" s="5">
-        <v>3</v>
-      </c>
-      <c r="K16" s="5">
+      <c r="M16" s="5">
+        <v>3</v>
+      </c>
+      <c r="N16" s="5">
         <v>104.7821</v>
       </c>
-      <c r="L16" s="5">
+      <c r="O16" s="5">
         <v>27.525300000000001</v>
       </c>
-      <c r="M16" s="5">
+      <c r="P16" s="5">
         <v>0.72150000000000003</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <f t="shared" si="0"/>
         <v>6.0910999999999973</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <f t="shared" si="1"/>
         <v>-0.6626999999999974</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <f t="shared" si="2"/>
         <v>2.3500000000000076E-2</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="T16" s="8">
         <f t="shared" si="3"/>
         <v>5.8131112088801402E-2</v>
       </c>
-      <c r="R16" s="8">
+      <c r="U16" s="8">
         <f t="shared" si="4"/>
         <v>-2.4076031868862369E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17">
+        <v>963.07600000000002</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
         <v>256</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>9</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>140.85400000000001</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>26.643000000000001</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>0.64800000000000002</v>
       </c>
-      <c r="J17" s="5">
+      <c r="M17" s="5">
         <v>8</v>
       </c>
-      <c r="K17" s="5">
+      <c r="N17" s="5">
         <v>152.29939999999999</v>
       </c>
-      <c r="L17" s="5">
+      <c r="O17" s="5">
         <v>26.303799999999999</v>
       </c>
-      <c r="M17" s="5">
+      <c r="P17" s="5">
         <v>0.6542</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <f t="shared" si="0"/>
         <v>11.445399999999978</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <f t="shared" si="1"/>
         <v>-0.33920000000000172</v>
       </c>
-      <c r="P17">
+      <c r="S17">
         <f t="shared" si="2"/>
         <v>6.1999999999999833E-3</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="T17" s="8">
         <f t="shared" si="3"/>
         <v>7.5150657192345982E-2</v>
       </c>
-      <c r="R17" s="8">
+      <c r="U17" s="8">
         <f t="shared" si="4"/>
         <v>-1.2895475178491387E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18">
+        <v>399.35719999999998</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
         <v>128</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>97.591999999999999</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>28.236999999999998</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>0.70299999999999996</v>
       </c>
-      <c r="J18" s="5">
-        <v>3</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="M18" s="5">
+        <v>3</v>
+      </c>
+      <c r="N18" s="5">
         <v>103.09180000000001</v>
       </c>
-      <c r="L18" s="5">
+      <c r="O18" s="5">
         <v>27.9986</v>
       </c>
-      <c r="M18" s="5">
+      <c r="P18" s="5">
         <v>0.70389999999999997</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <f t="shared" si="0"/>
         <v>5.4998000000000076</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <f t="shared" si="1"/>
         <v>-0.23839999999999861</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <f t="shared" si="2"/>
         <v>9.000000000000119E-4</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="T18" s="8">
         <f t="shared" si="3"/>
         <v>5.3348568945347806E-2</v>
       </c>
-      <c r="R18" s="8">
+      <c r="U18" s="8">
         <f t="shared" si="4"/>
         <v>-8.5147114498581571E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19">
+        <v>552.97400000000005</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
         <v>256</v>
       </c>
-      <c r="E19" s="3">
-        <v>100</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="H19" s="3">
+        <v>100</v>
+      </c>
+      <c r="I19" s="3">
         <v>6</v>
       </c>
-      <c r="G19" s="3">
+      <c r="J19" s="3">
         <v>110.83499999999999</v>
       </c>
-      <c r="H19" s="3">
+      <c r="K19" s="3">
         <v>27.684000000000001</v>
       </c>
-      <c r="I19" s="3">
+      <c r="L19" s="3">
         <v>0.69799999999999995</v>
       </c>
-      <c r="J19" s="5">
+      <c r="M19" s="5">
         <v>5</v>
       </c>
-      <c r="K19" s="5">
+      <c r="N19" s="5">
         <v>118.7346</v>
       </c>
-      <c r="L19" s="5">
+      <c r="O19" s="5">
         <v>27.385000000000002</v>
       </c>
-      <c r="M19" s="5">
+      <c r="P19" s="5">
         <v>0.69640000000000002</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <f t="shared" si="0"/>
         <v>7.8996000000000066</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <f t="shared" si="1"/>
         <v>-0.29899999999999949</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <f t="shared" si="2"/>
         <v>-1.5999999999999348E-3</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="T19" s="8">
         <f t="shared" si="3"/>
         <v>6.6531575463260134E-2</v>
       </c>
-      <c r="R19" s="8">
+      <c r="U19" s="8">
         <f t="shared" si="4"/>
         <v>-1.0918385977725013E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20">
+        <v>1988.4891</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <v>128</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>9</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>195.70599999999999</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>25.215</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>0.746</v>
       </c>
-      <c r="J20" s="5">
+      <c r="M20" s="5">
         <v>47</v>
       </c>
-      <c r="K20" s="5">
+      <c r="N20" s="5">
         <v>224.6414</v>
       </c>
-      <c r="L20" s="5">
+      <c r="O20" s="5">
         <v>24.6159</v>
       </c>
-      <c r="M20" s="5">
+      <c r="P20" s="5">
         <v>0.71489999999999998</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <f t="shared" si="0"/>
         <v>28.935400000000016</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <f t="shared" si="1"/>
         <v>-0.59909999999999997</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <f t="shared" si="2"/>
         <v>-3.1100000000000017E-2</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="T20" s="8">
         <f t="shared" si="3"/>
         <v>0.12880706761977095</v>
       </c>
-      <c r="R20" s="8">
+      <c r="U20" s="8">
         <f t="shared" si="4"/>
         <v>-2.4337927924634076E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21">
+        <v>805.03399999999999</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
         <v>256</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>7</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>96.51</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>28.285</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>0.75700000000000001</v>
       </c>
-      <c r="J21" s="5">
+      <c r="M21" s="5">
         <v>6</v>
       </c>
-      <c r="K21" s="5">
+      <c r="N21" s="5">
         <v>112.6387</v>
       </c>
-      <c r="L21" s="5">
+      <c r="O21" s="5">
         <v>27.613900000000001</v>
       </c>
-      <c r="M21" s="5">
+      <c r="P21" s="5">
         <v>0.75290000000000001</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <f t="shared" si="0"/>
         <v>16.128699999999995</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <f t="shared" si="1"/>
         <v>-0.67109999999999914</v>
       </c>
-      <c r="P21">
+      <c r="S21">
         <f t="shared" si="2"/>
         <v>-4.0999999999999925E-3</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="T21" s="8">
         <f t="shared" si="3"/>
         <v>0.14318968525027362</v>
       </c>
-      <c r="R21" s="8">
+      <c r="U21" s="8">
         <f t="shared" si="4"/>
         <v>-2.4302977848112695E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22">
+        <v>1516.8369</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
         <v>256</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>155.54599999999999</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>26.212</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>0.75900000000000001</v>
       </c>
-      <c r="J22" s="5">
+      <c r="M22" s="5">
         <v>27</v>
       </c>
-      <c r="K22" s="5">
+      <c r="N22" s="5">
         <v>180.3546</v>
       </c>
-      <c r="L22" s="5">
+      <c r="O22" s="5">
         <v>25.569500000000001</v>
       </c>
-      <c r="M22" s="5">
+      <c r="P22" s="5">
         <v>0.73219999999999996</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
         <f t="shared" si="0"/>
         <v>24.808600000000013</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <f t="shared" si="1"/>
         <v>-0.64249999999999829</v>
       </c>
-      <c r="P22">
+      <c r="S22">
         <f t="shared" si="2"/>
         <v>-2.6800000000000046E-2</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="T22" s="8">
         <f t="shared" si="3"/>
         <v>0.13755457304665372</v>
       </c>
-      <c r="R22" s="8">
+      <c r="U22" s="8">
         <f t="shared" si="4"/>
         <v>-2.5127593421850183E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23">
+        <v>517.91650000000004</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3">
         <v>256</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>6</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>92.981999999999999</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>28.446999999999999</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>0.74299999999999999</v>
       </c>
-      <c r="J23" s="5">
+      <c r="M23" s="5">
         <v>5</v>
       </c>
-      <c r="K23" s="5">
+      <c r="N23" s="5">
         <v>98.41</v>
       </c>
-      <c r="L23" s="5">
+      <c r="O23" s="5">
         <v>28.200399999999998</v>
       </c>
-      <c r="M23" s="5">
+      <c r="P23" s="5">
         <v>0.74070000000000003</v>
       </c>
-      <c r="N23">
+      <c r="Q23">
         <f t="shared" si="0"/>
         <v>5.4279999999999973</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <f t="shared" si="1"/>
         <v>-0.24660000000000082</v>
       </c>
-      <c r="P23">
+      <c r="S23">
         <f t="shared" si="2"/>
         <v>-2.2999999999999687E-3</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="T23" s="8">
         <f t="shared" si="3"/>
         <v>5.5156996240219462E-2</v>
       </c>
-      <c r="R23" s="8">
+      <c r="U23" s="8">
         <f t="shared" si="4"/>
         <v>-8.7445568147969822E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24">
+        <v>467.94540000000001</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3">
         <v>256</v>
       </c>
-      <c r="E24" s="3">
-        <v>100</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>82.798000000000002</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>28.951000000000001</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>0.76100000000000001</v>
       </c>
-      <c r="J24" s="5">
+      <c r="M24" s="5">
         <v>4</v>
       </c>
-      <c r="K24" s="5">
+      <c r="N24" s="5">
         <v>87.922600000000003</v>
       </c>
-      <c r="L24" s="5">
+      <c r="O24" s="5">
         <v>28.270700000000001</v>
       </c>
-      <c r="M24" s="5">
+      <c r="P24" s="5">
         <v>0.76149999999999995</v>
       </c>
-      <c r="N24">
+      <c r="Q24">
         <f t="shared" si="0"/>
         <v>5.1246000000000009</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <f t="shared" si="1"/>
         <v>-0.68029999999999902</v>
       </c>
-      <c r="P24">
+      <c r="S24">
         <f t="shared" si="2"/>
         <v>4.9999999999994493E-4</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="T24" s="8">
         <f t="shared" si="3"/>
         <v>5.8285355528612671E-2</v>
       </c>
-      <c r="R24" s="8">
+      <c r="U24" s="8">
         <f t="shared" si="4"/>
         <v>-2.4063783351667947E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25">
+        <v>473.34660000000002</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
         <v>256</v>
       </c>
-      <c r="E25" s="3">
-        <v>100</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="H25" s="3">
+        <v>100</v>
+      </c>
+      <c r="I25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="3">
+      <c r="J25" s="3">
         <v>83.894000000000005</v>
       </c>
-      <c r="H25" s="3">
+      <c r="K25" s="3">
         <v>28.893000000000001</v>
       </c>
-      <c r="I25" s="3">
+      <c r="L25" s="3">
         <v>0.75900000000000001</v>
       </c>
-      <c r="J25" s="5">
+      <c r="M25" s="5">
         <v>5</v>
       </c>
-      <c r="K25" s="5">
+      <c r="N25" s="5">
         <v>89.163700000000006</v>
       </c>
-      <c r="L25" s="5">
+      <c r="O25" s="5">
         <v>28.628900000000002</v>
       </c>
-      <c r="M25" s="5">
+      <c r="P25" s="5">
         <v>0.75670000000000004</v>
       </c>
-      <c r="N25">
+      <c r="Q25">
         <f t="shared" si="0"/>
         <v>5.2697000000000003</v>
       </c>
-      <c r="O25">
+      <c r="R25">
         <f t="shared" si="1"/>
         <v>-0.26409999999999911</v>
       </c>
-      <c r="P25">
+      <c r="S25">
         <f t="shared" si="2"/>
         <v>-2.2999999999999687E-3</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="T25" s="8">
         <f t="shared" si="3"/>
         <v>5.9101405616859774E-2</v>
       </c>
-      <c r="R25" s="8">
+      <c r="U25" s="8">
         <f t="shared" si="4"/>
         <v>-9.2249440250934921E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26">
+        <v>1066.4603999999999</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3">
         <v>256</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>11</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>134.81200000000001</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>26.834</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>0.68700000000000006</v>
       </c>
-      <c r="J26" s="5">
+      <c r="M26" s="5">
         <v>8</v>
       </c>
-      <c r="K26" s="5">
+      <c r="N26" s="5">
         <v>146.86770000000001</v>
       </c>
-      <c r="L26" s="5">
+      <c r="O26" s="5">
         <v>26.461500000000001</v>
       </c>
-      <c r="M26" s="5">
+      <c r="P26" s="5">
         <v>0.68569999999999998</v>
       </c>
-      <c r="N26">
+      <c r="Q26">
         <f t="shared" si="0"/>
         <v>12.055700000000002</v>
       </c>
-      <c r="O26">
+      <c r="R26">
         <f t="shared" si="1"/>
         <v>-0.37249999999999872</v>
       </c>
-      <c r="P26">
+      <c r="S26">
         <f t="shared" si="2"/>
         <v>-1.3000000000000789E-3</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="T26" s="8">
         <f t="shared" si="3"/>
         <v>8.2085441523221239E-2</v>
       </c>
-      <c r="R26" s="8">
+      <c r="U26" s="8">
         <f t="shared" si="4"/>
         <v>-1.4077055344557138E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27">
+        <v>465.16379999999998</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
         <v>256</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>82.085999999999999</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>28.988</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>0.76300000000000001</v>
       </c>
-      <c r="J27" s="5">
+      <c r="M27" s="5">
         <v>5</v>
       </c>
-      <c r="K27" s="5">
+      <c r="N27" s="5">
         <v>87.252899999999997</v>
       </c>
-      <c r="L27" s="5">
+      <c r="O27" s="5">
         <v>28.722999999999999</v>
       </c>
-      <c r="M27" s="5">
+      <c r="P27" s="5">
         <v>0.76</v>
       </c>
-      <c r="N27">
+      <c r="Q27">
         <f t="shared" si="0"/>
         <v>5.1668999999999983</v>
       </c>
-      <c r="O27">
+      <c r="R27">
         <f t="shared" si="1"/>
         <v>-0.26500000000000057</v>
       </c>
-      <c r="P27">
+      <c r="S27">
         <f t="shared" si="2"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="T27" s="8">
         <f t="shared" si="3"/>
         <v>5.9217515979411557E-2</v>
       </c>
-      <c r="R27" s="8">
+      <c r="U27" s="8">
         <f t="shared" si="4"/>
         <v>-9.2260557741183219E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28">
+        <v>633.58150000000001</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3">
         <v>128</v>
       </c>
-      <c r="E28" s="3">
-        <v>100</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="H28" s="3">
+        <v>100</v>
+      </c>
+      <c r="I28" s="3">
         <v>7</v>
       </c>
-      <c r="G28" s="3">
+      <c r="J28" s="3">
         <v>97.521000000000001</v>
       </c>
-      <c r="H28" s="3">
+      <c r="K28" s="3">
         <v>28.24</v>
       </c>
-      <c r="I28" s="3">
+      <c r="L28" s="3">
         <v>0.73499999999999999</v>
       </c>
-      <c r="J28" s="5">
+      <c r="M28" s="5">
         <v>6</v>
       </c>
-      <c r="K28" s="5">
+      <c r="N28" s="5">
         <v>104.5967</v>
       </c>
-      <c r="L28" s="5">
+      <c r="O28" s="5">
         <v>27.935600000000001</v>
       </c>
-      <c r="M28" s="5">
+      <c r="P28" s="5">
         <v>0.73599999999999999</v>
       </c>
-      <c r="N28">
+      <c r="Q28">
         <f t="shared" si="0"/>
         <v>7.0756999999999977</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <f t="shared" si="1"/>
         <v>-0.30439999999999756</v>
       </c>
-      <c r="P28">
+      <c r="S28">
         <f t="shared" si="2"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="T28" s="8">
         <f t="shared" si="3"/>
         <v>6.7647449680534835E-2</v>
       </c>
-      <c r="R28" s="8">
+      <c r="U28" s="8">
         <f t="shared" si="4"/>
         <v>-1.0896490499577513E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="3">
-        <v>3</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29">
+        <v>2260.9364999999998</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
         <v>256</v>
       </c>
-      <c r="E29" s="3">
-        <v>100</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
+        <v>100</v>
+      </c>
+      <c r="I29" s="3">
         <v>12</v>
       </c>
-      <c r="G29" s="3">
+      <c r="J29" s="3">
         <v>292.71300000000002</v>
       </c>
-      <c r="H29" s="3">
+      <c r="K29" s="3">
         <v>23.466000000000001</v>
       </c>
-      <c r="I29" s="3">
+      <c r="L29" s="3">
         <v>0.55200000000000005</v>
       </c>
-      <c r="J29" s="5">
+      <c r="M29" s="5">
         <v>50</v>
       </c>
-      <c r="K29" s="5">
+      <c r="N29" s="5">
         <v>320.61169999999998</v>
       </c>
-      <c r="L29" s="5">
+      <c r="O29" s="5">
         <v>23.071000000000002</v>
       </c>
-      <c r="M29" s="5">
+      <c r="P29" s="5">
         <v>0.56669999999999998</v>
       </c>
-      <c r="N29">
+      <c r="Q29">
         <f t="shared" si="0"/>
         <v>27.898699999999963</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <f t="shared" si="1"/>
         <v>-0.39499999999999957</v>
       </c>
-      <c r="P29">
+      <c r="S29">
         <f t="shared" si="2"/>
         <v>1.4699999999999935E-2</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="T29" s="8">
         <f t="shared" si="3"/>
         <v>8.7017098876927962E-2</v>
       </c>
-      <c r="R29" s="8">
+      <c r="U29" s="8">
         <f t="shared" si="4"/>
         <v>-1.7121061072341882E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="3">
-        <v>3</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30">
+        <v>906.16790000000003</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3">
         <v>256</v>
       </c>
-      <c r="E30" s="3">
-        <v>100</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
+        <v>100</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3">
         <v>184.626</v>
       </c>
-      <c r="H30" s="3">
+      <c r="K30" s="3">
         <v>25.468</v>
       </c>
-      <c r="I30" s="3">
+      <c r="L30" s="3">
         <v>0.58699999999999997</v>
       </c>
-      <c r="J30" s="5">
+      <c r="M30" s="5">
         <v>4</v>
       </c>
-      <c r="K30" s="5">
+      <c r="N30" s="5">
         <v>190.1104</v>
       </c>
-      <c r="L30" s="5">
+      <c r="O30" s="5">
         <v>25.340699999999998</v>
       </c>
-      <c r="M30" s="5">
+      <c r="P30" s="5">
         <v>0.60529999999999995</v>
       </c>
-      <c r="N30">
+      <c r="Q30">
         <f t="shared" si="0"/>
         <v>5.4843999999999937</v>
       </c>
-      <c r="O30">
+      <c r="R30">
         <f t="shared" si="1"/>
         <v>-0.12730000000000175</v>
       </c>
-      <c r="P30">
+      <c r="S30">
         <f t="shared" si="2"/>
         <v>1.8299999999999983E-2</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="T30" s="8">
         <f t="shared" si="3"/>
         <v>2.8848500660668717E-2</v>
       </c>
-      <c r="R30" s="8">
+      <c r="U30" s="8">
         <f t="shared" si="4"/>
         <v>-5.0235392076778363E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="3">
-        <v>3</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31">
+        <v>1727.3032000000001</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3">
         <v>64</v>
       </c>
-      <c r="E31" s="3">
-        <v>100</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="H31" s="3">
+        <v>100</v>
+      </c>
+      <c r="I31" s="3">
         <v>7</v>
       </c>
-      <c r="G31" s="3">
+      <c r="J31" s="3">
         <v>247.785</v>
       </c>
-      <c r="H31" s="3">
+      <c r="K31" s="3">
         <v>24.19</v>
       </c>
-      <c r="I31" s="3">
+      <c r="L31" s="3">
         <v>0.55900000000000005</v>
       </c>
-      <c r="J31" s="5">
+      <c r="M31" s="5">
         <v>45</v>
       </c>
-      <c r="K31" s="5">
+      <c r="N31" s="5">
         <v>249.56710000000001</v>
       </c>
-      <c r="L31" s="5">
+      <c r="O31" s="5">
         <v>24.158899999999999</v>
       </c>
-      <c r="M31" s="5">
+      <c r="P31" s="5">
         <v>0.58150000000000002</v>
       </c>
-      <c r="N31">
+      <c r="Q31">
         <f t="shared" si="0"/>
         <v>1.782100000000014</v>
       </c>
-      <c r="O31">
+      <c r="R31">
         <f t="shared" si="1"/>
         <v>-3.1100000000002126E-2</v>
       </c>
-      <c r="P31">
+      <c r="S31">
         <f t="shared" si="2"/>
         <v>2.2499999999999964E-2</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="T31" s="8">
         <f t="shared" si="3"/>
         <v>7.1407649485850256E-3</v>
       </c>
-      <c r="R31" s="8">
+      <c r="U31" s="8">
         <f t="shared" si="4"/>
         <v>-1.2873102666099089E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32">
+        <v>599.57119999999998</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3">
         <v>256</v>
       </c>
-      <c r="E32" s="3">
-        <v>100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
         <v>165.821</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>25.934000000000001</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>0.59499999999999997</v>
       </c>
-      <c r="J32" s="5">
+      <c r="M32" s="5">
         <v>4</v>
       </c>
-      <c r="K32" s="5">
+      <c r="N32" s="5">
         <v>167.9014</v>
       </c>
-      <c r="L32" s="5">
+      <c r="O32" s="5">
         <v>25.880299999999998</v>
       </c>
-      <c r="M32" s="5">
+      <c r="P32" s="5">
         <v>0.60209999999999997</v>
       </c>
-      <c r="N32">
+      <c r="Q32">
         <f t="shared" si="0"/>
         <v>2.0803999999999974</v>
       </c>
-      <c r="O32">
+      <c r="R32">
         <f t="shared" si="1"/>
         <v>-5.3700000000002746E-2</v>
       </c>
-      <c r="P32">
+      <c r="S32">
         <f t="shared" si="2"/>
         <v>7.0999999999999952E-3</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="T32" s="8">
         <f t="shared" si="3"/>
         <v>1.2390605438668155E-2</v>
       </c>
-      <c r="R32" s="8">
+      <c r="U32" s="8">
         <f t="shared" si="4"/>
         <v>-2.0749373075274534E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="3">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33">
+        <v>548.60919999999999</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3">
         <v>256</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3">
         <v>154.28</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>26.248000000000001</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>0.61</v>
       </c>
-      <c r="J33" s="5">
-        <v>3</v>
-      </c>
-      <c r="K33" s="5">
+      <c r="M33" s="5">
+        <v>3</v>
+      </c>
+      <c r="N33" s="5">
         <v>156.2927</v>
       </c>
-      <c r="L33" s="5">
+      <c r="O33" s="5">
         <v>26.191400000000002</v>
       </c>
-      <c r="M33" s="5">
+      <c r="P33" s="5">
         <v>0.61429999999999996</v>
       </c>
-      <c r="N33">
+      <c r="Q33">
         <f t="shared" si="0"/>
         <v>2.0126999999999953</v>
       </c>
-      <c r="O33">
+      <c r="R33">
         <f t="shared" si="1"/>
         <v>-5.659999999999954E-2</v>
       </c>
-      <c r="P33">
+      <c r="S33">
         <f t="shared" si="2"/>
         <v>4.2999999999999705E-3</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="T33" s="8">
         <f t="shared" si="3"/>
         <v>1.2877760765537963E-2</v>
       </c>
-      <c r="R33" s="8">
+      <c r="U33" s="8">
         <f t="shared" si="4"/>
         <v>-2.1610146842093031E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34">
+        <v>554.21400000000006</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3">
         <v>256</v>
       </c>
-      <c r="E34" s="3">
-        <v>100</v>
-      </c>
-      <c r="F34" s="3">
-        <v>3</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="H34" s="3">
+        <v>100</v>
+      </c>
+      <c r="I34" s="3">
+        <v>3</v>
+      </c>
+      <c r="J34" s="3">
         <v>155.50200000000001</v>
       </c>
-      <c r="H34" s="3">
+      <c r="K34" s="3">
         <v>26.213000000000001</v>
       </c>
-      <c r="I34" s="3">
+      <c r="L34" s="3">
         <v>0.60799999999999998</v>
       </c>
-      <c r="J34" s="5">
-        <v>3</v>
-      </c>
-      <c r="K34" s="5">
+      <c r="M34" s="5">
+        <v>3</v>
+      </c>
+      <c r="N34" s="5">
         <v>157.51939999999999</v>
       </c>
-      <c r="L34" s="5">
+      <c r="O34" s="5">
         <v>26.157499999999999</v>
       </c>
-      <c r="M34" s="5">
+      <c r="P34" s="5">
         <v>0.61260000000000003</v>
       </c>
-      <c r="N34">
+      <c r="Q34">
         <f t="shared" si="0"/>
         <v>2.0173999999999808</v>
       </c>
-      <c r="O34">
+      <c r="R34">
         <f t="shared" si="1"/>
         <v>-5.5500000000002103E-2</v>
       </c>
-      <c r="P34">
+      <c r="S34">
         <f t="shared" si="2"/>
         <v>4.6000000000000485E-3</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="T34" s="8">
         <f t="shared" si="3"/>
         <v>1.2807311353395079E-2</v>
       </c>
-      <c r="R34" s="8">
+      <c r="U34" s="8">
         <f t="shared" si="4"/>
         <v>-2.1217624008411395E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="3">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35">
+        <v>1277.6552999999999</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3">
         <v>256</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>11</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>215.56700000000001</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>24.795000000000002</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>0.54500000000000004</v>
       </c>
-      <c r="J35" s="5">
+      <c r="M35" s="5">
         <v>8</v>
       </c>
-      <c r="K35" s="5">
+      <c r="N35" s="5">
         <v>224.61109999999999</v>
       </c>
-      <c r="L35" s="5">
+      <c r="O35" s="5">
         <v>24.616499999999998</v>
       </c>
-      <c r="M35" s="5">
+      <c r="P35" s="5">
         <v>0.54520000000000002</v>
       </c>
-      <c r="N35">
+      <c r="Q35">
         <f t="shared" si="0"/>
         <v>9.044099999999986</v>
       </c>
-      <c r="O35">
+      <c r="R35">
         <f t="shared" si="1"/>
         <v>-0.17850000000000321</v>
       </c>
-      <c r="P35">
+      <c r="S35">
         <f t="shared" si="2"/>
         <v>1.9999999999997797E-4</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="T35" s="8">
         <f t="shared" si="3"/>
         <v>4.0265596847172673E-2</v>
       </c>
-      <c r="R35" s="8">
+      <c r="U35" s="8">
         <f t="shared" si="4"/>
         <v>-7.2512339284627478E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="3">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36">
+        <v>545.50720000000001</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3">
         <v>256</v>
       </c>
-      <c r="E36" s="3">
-        <v>100</v>
-      </c>
-      <c r="F36" s="3">
-        <v>3</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="H36" s="3">
+        <v>100</v>
+      </c>
+      <c r="I36" s="3">
+        <v>3</v>
+      </c>
+      <c r="J36" s="3">
         <v>153.62100000000001</v>
       </c>
-      <c r="H36" s="3">
+      <c r="K36" s="3">
         <v>26.265999999999998</v>
       </c>
-      <c r="I36" s="3">
+      <c r="L36" s="3">
         <v>0.61099999999999999</v>
       </c>
-      <c r="J36" s="5">
-        <v>3</v>
-      </c>
-      <c r="K36" s="5">
+      <c r="M36" s="5">
+        <v>3</v>
+      </c>
+      <c r="N36" s="5">
         <v>155.7081</v>
       </c>
-      <c r="L36" s="5">
+      <c r="O36" s="5">
         <v>26.207699999999999</v>
       </c>
-      <c r="M36" s="5">
+      <c r="P36" s="5">
         <v>0.61509999999999998</v>
       </c>
-      <c r="N36">
+      <c r="Q36">
         <f t="shared" si="0"/>
         <v>2.0870999999999924</v>
       </c>
-      <c r="O36">
+      <c r="R36">
         <f t="shared" si="1"/>
         <v>-5.829999999999913E-2</v>
       </c>
-      <c r="P36">
+      <c r="S36">
         <f t="shared" si="2"/>
         <v>4.0999999999999925E-3</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="T36" s="8">
         <f t="shared" si="3"/>
         <v>1.3403926963337118E-2</v>
       </c>
-      <c r="R36" s="8">
+      <c r="U36" s="8">
         <f t="shared" si="4"/>
         <v>-2.2245370635347295E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="3">
-        <v>2</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37">
+        <v>749.78589999999997</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3">
         <v>256</v>
       </c>
-      <c r="E37" s="3">
-        <v>100</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="H37" s="3">
+        <v>100</v>
+      </c>
+      <c r="I37" s="3">
         <v>6</v>
       </c>
-      <c r="G37" s="3">
+      <c r="J37" s="3">
         <v>173.547</v>
       </c>
-      <c r="H37" s="3">
+      <c r="K37" s="3">
         <v>25.736999999999998</v>
       </c>
-      <c r="I37" s="3">
+      <c r="L37" s="3">
         <v>0.59</v>
       </c>
-      <c r="J37" s="5">
+      <c r="M37" s="5">
         <v>4</v>
       </c>
-      <c r="K37" s="5">
+      <c r="N37" s="5">
         <v>177.9042</v>
       </c>
-      <c r="L37" s="5">
+      <c r="O37" s="5">
         <v>25.295000000000002</v>
       </c>
-      <c r="M37" s="5">
+      <c r="P37" s="5">
         <v>0.56210000000000004</v>
       </c>
-      <c r="N37">
+      <c r="Q37">
         <f t="shared" si="0"/>
         <v>4.357200000000006</v>
       </c>
-      <c r="O37">
+      <c r="R37">
         <f t="shared" si="1"/>
         <v>-0.44199999999999662</v>
       </c>
-      <c r="P37">
+      <c r="S37">
         <f t="shared" si="2"/>
         <v>-2.7899999999999925E-2</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="T37" s="8">
         <f t="shared" si="3"/>
         <v>2.4491833245083625E-2</v>
       </c>
-      <c r="R37" s="8">
+      <c r="U37" s="8">
         <f t="shared" si="4"/>
         <v>-1.7473809053172428E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{E1048CE1-163E-9243-951A-AD61112252EC}"/>
+  <autoFilter ref="A1:O1" xr:uid="{E1048CE1-163E-9243-951A-AD61112252EC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/matlab/scripts/optimal_log/Initial_data_analysis.xlsx
+++ b/matlab/scripts/optimal_log/Initial_data_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cko/repos/school/Polya_Restoration/matlab/scripts/optimal_log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D92B0F-76FB-5E41-A32A-654B37CC4CD7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024BDA27-058C-0B46-BE93-2BD677A42736}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17560" xr2:uid="{F5EC45BB-9BF6-4592-8A54-61375F823C90}"/>
+    <workbookView xWindow="60" yWindow="440" windowWidth="28720" windowHeight="17560" xr2:uid="{F5EC45BB-9BF6-4592-8A54-61375F823C90}"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="3" r:id="rId1"/>

--- a/matlab/scripts/optimal_log/Initial_data_analysis.xlsx
+++ b/matlab/scripts/optimal_log/Initial_data_analysis.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cko/repos/school/Polya_Restoration/matlab/scripts/optimal_log/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MTHE493\Polya_Restoration\matlab\scripts\optimal_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024BDA27-058C-0B46-BE93-2BD677A42736}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C82FE5B-3627-4440-8B2A-45799F0147F7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="440" windowWidth="28720" windowHeight="17560" xr2:uid="{F5EC45BB-9BF6-4592-8A54-61375F823C90}"/>
+    <workbookView xWindow="60" yWindow="444" windowWidth="28716" windowHeight="17556" xr2:uid="{F5EC45BB-9BF6-4592-8A54-61375F823C90}"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="3" r:id="rId1"/>
     <sheet name="Old" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">New!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">New!$A$1:$V$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Old!$A$1:$I$37</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="38">
   <si>
     <t>Noise Type</t>
   </si>
@@ -136,11 +136,23 @@
   <si>
     <t>ENL</t>
   </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +202,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -204,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -214,6 +232,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,35 +549,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC43DABC-DBC5-8947-9323-9B71ED88D465}">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H28" sqref="H28"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,2479 +586,5110 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2">
         <v>3838.1801</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>3</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>32</v>
       </c>
-      <c r="H2" s="3">
-        <v>100</v>
-      </c>
       <c r="I2" s="3">
+        <v>100</v>
+      </c>
+      <c r="J2" s="3">
         <v>6</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>589.524</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>20.425999999999998</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>0.51300000000000001</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>50</v>
       </c>
-      <c r="N2" s="5">
+      <c r="O2" s="5">
         <v>659.07709999999997</v>
       </c>
-      <c r="O2" s="5">
+      <c r="P2" s="5">
         <v>19.941400000000002</v>
       </c>
-      <c r="P2" s="5">
+      <c r="Q2" s="5">
         <v>0.55569999999999997</v>
-      </c>
-      <c r="Q2">
-        <f>N2-J2</f>
-        <v>69.553099999999972</v>
       </c>
       <c r="R2">
         <f>O2-K2</f>
-        <v>-0.48459999999999681</v>
+        <v>69.553099999999972</v>
       </c>
       <c r="S2">
         <f>P2-L2</f>
+        <v>-0.48459999999999681</v>
+      </c>
+      <c r="T2">
+        <f>Q2-M2</f>
         <v>4.269999999999996E-2</v>
-      </c>
-      <c r="T2" s="8">
-        <f>Q2/N2</f>
-        <v>0.10553105243680895</v>
       </c>
       <c r="U2" s="8">
         <f>R2/O2</f>
+        <v>0.10553105243680895</v>
+      </c>
+      <c r="V2" s="8">
+        <f>S2/P2</f>
         <v>-2.4301202523393382E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3">
         <v>1414.6353999999999</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3">
         <v>2</v>
       </c>
       <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
         <v>256</v>
       </c>
-      <c r="H3" s="3">
-        <v>100</v>
-      </c>
       <c r="I3" s="3">
+        <v>100</v>
+      </c>
+      <c r="J3" s="3">
         <v>3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>314.74200000000002</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>23.151</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>0.62</v>
       </c>
-      <c r="M3" s="5">
-        <v>2</v>
-      </c>
       <c r="N3" s="5">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5">
         <v>364.73599999999999</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>22.222200000000001</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>0.5494</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q37" si="0">N3-J3</f>
+      <c r="R3">
+        <f t="shared" ref="R3:R37" si="0">O3-K3</f>
         <v>49.993999999999971</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R37" si="1">O3-K3</f>
+      <c r="S3">
+        <f t="shared" ref="S3:S37" si="1">P3-L3</f>
         <v>-0.92879999999999896</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S37" si="2">P3-L3</f>
+      <c r="T3">
+        <f t="shared" ref="T3:T37" si="2">Q3-M3</f>
         <v>-7.0599999999999996E-2</v>
       </c>
-      <c r="T3" s="8">
-        <f t="shared" ref="T3:T37" si="3">Q3/N3</f>
+      <c r="U3" s="8">
+        <f t="shared" ref="U3:U37" si="3">R3/O3</f>
         <v>0.13706900333391817</v>
       </c>
-      <c r="U3" s="8">
-        <f t="shared" ref="U3:U37" si="4">R3/O3</f>
+      <c r="V3" s="8">
+        <f t="shared" ref="V3:V37" si="4">S3/P3</f>
         <v>-4.1796041796041745E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
         <v>2783.5153</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>128</v>
       </c>
-      <c r="H4" s="3">
-        <v>100</v>
-      </c>
       <c r="I4" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
         <v>500.08499999999998</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>21.14</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>0.55700000000000005</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>50</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>547.18809999999996</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>20.749400000000001</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>0.57210000000000005</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f t="shared" si="0"/>
         <v>47.103099999999984</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f t="shared" si="1"/>
         <v>-0.39059999999999917</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <f t="shared" si="2"/>
         <v>1.5100000000000002E-2</v>
       </c>
-      <c r="T4" s="8">
+      <c r="U4" s="8">
         <f t="shared" si="3"/>
         <v>8.6082098642130539E-2</v>
       </c>
-      <c r="U4" s="8">
+      <c r="V4" s="8">
         <f t="shared" si="4"/>
         <v>-1.8824640712502488E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
         <v>823.60310000000004</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>20</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>64</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>160</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>10</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>279.11</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>23.672999999999998</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>0.61799999999999999</v>
       </c>
-      <c r="M5" s="5">
-        <v>2</v>
-      </c>
       <c r="N5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="5">
         <v>310.15129999999999</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>22.371300000000002</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>0.55010000000000003</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f t="shared" si="0"/>
         <v>31.041299999999978</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f t="shared" si="1"/>
         <v>-1.3016999999999967</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <f t="shared" si="2"/>
         <v>-6.789999999999996E-2</v>
       </c>
-      <c r="T5" s="8">
+      <c r="U5" s="8">
         <f t="shared" si="3"/>
         <v>0.10008437817284654</v>
       </c>
-      <c r="U5" s="8">
+      <c r="V5" s="8">
         <f t="shared" si="4"/>
         <v>-5.818615815799693E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
         <v>787.52650000000006</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>128</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>120</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>10</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>260.00099999999998</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>23.981000000000002</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>0.63100000000000001</v>
       </c>
-      <c r="M6" s="5">
-        <v>2</v>
-      </c>
       <c r="N6" s="5">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5">
         <v>295.67869999999999</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>22.479700000000001</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>0.55700000000000005</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>35.677700000000016</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f t="shared" si="1"/>
         <v>-1.5013000000000005</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f t="shared" si="2"/>
         <v>-7.3999999999999955E-2</v>
       </c>
-      <c r="T6" s="8">
+      <c r="U6" s="8">
         <f t="shared" si="3"/>
         <v>0.12066374750700681</v>
       </c>
-      <c r="U6" s="8">
+      <c r="V6" s="8">
         <f t="shared" si="4"/>
         <v>-6.6784699084062524E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
         <v>790.45280000000002</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>10</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>128</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>120</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>10</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>263.75799999999998</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>23.919</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>0.629</v>
       </c>
-      <c r="M7" s="5">
-        <v>2</v>
-      </c>
       <c r="N7" s="5">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5">
         <v>297.42380000000003</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>22.468499999999999</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>0.55630000000000002</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="0"/>
         <v>33.665800000000047</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="1"/>
         <v>-1.4505000000000017</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f t="shared" si="2"/>
         <v>-7.2699999999999987E-2</v>
       </c>
-      <c r="T7" s="8">
+      <c r="U7" s="8">
         <f t="shared" si="3"/>
         <v>0.11319134514453801</v>
       </c>
-      <c r="U7" s="8">
+      <c r="V7" s="8">
         <f t="shared" si="4"/>
         <v>-6.4557046531811282E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
         <v>1651.6928</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
       <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
         <v>256</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>6</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>409.666</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22.006</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>0.54200000000000004</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>4</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>451.83010000000002</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>21.468499999999999</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>0.50770000000000004</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>42.164100000000019</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f t="shared" si="1"/>
         <v>-0.53750000000000142</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f t="shared" si="2"/>
         <v>-3.4299999999999997E-2</v>
       </c>
-      <c r="T8" s="8">
+      <c r="U8" s="8">
         <f t="shared" si="3"/>
         <v>9.3318484093910553E-2</v>
       </c>
-      <c r="U8" s="8">
+      <c r="V8" s="8">
         <f t="shared" si="4"/>
         <v>-2.5036681649859165E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
         <v>788.12850000000003</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>256</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>140</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>260.74799999999999</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23.969000000000001</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>0.63100000000000001</v>
       </c>
-      <c r="M9" s="5">
-        <v>2</v>
-      </c>
       <c r="N9" s="5">
+        <v>2</v>
+      </c>
+      <c r="O9" s="5">
         <v>294.51299999999998</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>22.484400000000001</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>0.55730000000000002</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <f t="shared" si="0"/>
         <v>33.764999999999986</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f t="shared" si="1"/>
         <v>-1.4846000000000004</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f t="shared" si="2"/>
         <v>-7.3699999999999988E-2</v>
       </c>
-      <c r="T9" s="8">
+      <c r="U9" s="8">
         <f t="shared" si="3"/>
         <v>0.11464689164824639</v>
       </c>
-      <c r="U9" s="8">
+      <c r="V9" s="8">
         <f t="shared" si="4"/>
         <v>-6.6028001636690342E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
         <v>1038.6316999999999</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>7</v>
       </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
       <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
         <v>64</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3">
         <v>315.17700000000002</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23.145</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>0.58899999999999997</v>
       </c>
-      <c r="M10" s="5">
-        <v>2</v>
-      </c>
       <c r="N10" s="5">
+        <v>2</v>
+      </c>
+      <c r="O10" s="5">
         <v>343.2072</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>22.138200000000001</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>0.55169999999999997</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <f t="shared" si="0"/>
         <v>28.030199999999979</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f t="shared" si="1"/>
         <v>-1.0067999999999984</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <f t="shared" si="2"/>
         <v>-3.73E-2</v>
       </c>
-      <c r="T10" s="8">
+      <c r="U10" s="8">
         <f t="shared" si="3"/>
         <v>8.1671363537827821E-2</v>
       </c>
-      <c r="U10" s="8">
+      <c r="V10" s="8">
         <f t="shared" si="4"/>
         <v>-4.5477952137030035E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
         <v>1667.9771000000001</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>64</v>
       </c>
-      <c r="H11" s="3">
-        <v>100</v>
-      </c>
       <c r="I11" s="3">
+        <v>100</v>
+      </c>
+      <c r="J11" s="3">
         <v>6</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>182.899</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>25.509</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>0.70399999999999996</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>50</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <v>217.5027</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>24.7562</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>0.68659999999999999</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <f t="shared" si="0"/>
         <v>34.603700000000003</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <f t="shared" si="1"/>
         <v>-0.75280000000000058</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <f t="shared" si="2"/>
         <v>-1.7399999999999971E-2</v>
       </c>
-      <c r="T11" s="8">
+      <c r="U11" s="8">
         <f t="shared" si="3"/>
         <v>0.15909549628579325</v>
       </c>
-      <c r="U11" s="8">
+      <c r="V11" s="8">
         <f t="shared" si="4"/>
         <v>-3.0408544122280504E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
         <v>661.21640000000002</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12">
         <v>2</v>
       </c>
       <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>128</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>3</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>110.94199999999999</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27.68</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>0.69299999999999995</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>4</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>127.61069999999999</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>27.071899999999999</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>0.70479999999999998</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <f t="shared" si="0"/>
         <v>16.668700000000001</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f t="shared" si="1"/>
         <v>-0.60810000000000031</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f t="shared" si="2"/>
         <v>1.1800000000000033E-2</v>
       </c>
-      <c r="T12" s="8">
+      <c r="U12" s="8">
         <f t="shared" si="3"/>
         <v>0.13062149177145804</v>
       </c>
-      <c r="U12" s="8">
+      <c r="V12" s="8">
         <f t="shared" si="4"/>
         <v>-2.2462405667869646E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
         <v>1249.7942</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>6</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>64</v>
       </c>
-      <c r="H13" s="3">
-        <v>100</v>
-      </c>
       <c r="I13" s="3">
+        <v>100</v>
+      </c>
+      <c r="J13" s="3">
         <v>7</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>157.38399999999999</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>26.161000000000001</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>0.71599999999999997</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>37</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>185.97309999999999</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>25.436299999999999</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <v>0.70430000000000004</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <f t="shared" si="0"/>
         <v>28.589100000000002</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f t="shared" si="1"/>
         <v>-0.72470000000000212</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f t="shared" si="2"/>
         <v>-1.1699999999999933E-2</v>
       </c>
-      <c r="T13" s="8">
+      <c r="U13" s="8">
         <f t="shared" si="3"/>
         <v>0.15372707128073901</v>
       </c>
-      <c r="U13" s="8">
+      <c r="V13" s="8">
         <f t="shared" si="4"/>
         <v>-2.8490778926180387E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
         <v>454.9683</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>20</v>
       </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
       <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
         <v>128</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
       <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>107.913</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27.8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>0.69099999999999995</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>4</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>113.9014</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>27.5655</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>0.69410000000000005</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <f t="shared" si="0"/>
         <v>5.9883999999999986</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <f t="shared" si="1"/>
         <v>-0.2345000000000006</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <f t="shared" si="2"/>
         <v>3.1000000000001027E-3</v>
       </c>
-      <c r="T14" s="8">
+      <c r="U14" s="8">
         <f t="shared" si="3"/>
         <v>5.2575297581943674E-2</v>
       </c>
-      <c r="U14" s="8">
+      <c r="V14" s="8">
         <f t="shared" si="4"/>
         <v>-8.5070105748127397E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
         <v>402.68029999999999</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
       <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
         <v>256</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
       <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>97.566999999999993</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>28.238</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>0.70199999999999996</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>3</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="5">
         <v>103.6925</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>27.5503</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>0.72319999999999995</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <f t="shared" si="0"/>
         <v>6.1255000000000024</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <f t="shared" si="1"/>
         <v>-0.68769999999999953</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <f t="shared" si="2"/>
         <v>2.1199999999999997E-2</v>
       </c>
-      <c r="T15" s="8">
+      <c r="U15" s="8">
         <f t="shared" si="3"/>
         <v>5.9073703498324401E-2</v>
       </c>
-      <c r="U15" s="8">
+      <c r="V15" s="8">
         <f t="shared" si="4"/>
         <v>-2.4961615662987317E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
         <v>408.50029999999998</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
       <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
         <v>256</v>
       </c>
-      <c r="H16" s="3">
-        <v>100</v>
-      </c>
       <c r="I16" s="3">
+        <v>100</v>
+      </c>
+      <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>98.691000000000003</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>28.187999999999999</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>0.69799999999999995</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>3</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <v>104.7821</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>27.525300000000001</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>0.72150000000000003</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <f t="shared" si="0"/>
         <v>6.0910999999999973</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f t="shared" si="1"/>
         <v>-0.6626999999999974</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <f t="shared" si="2"/>
         <v>2.3500000000000076E-2</v>
       </c>
-      <c r="T16" s="8">
+      <c r="U16" s="8">
         <f t="shared" si="3"/>
         <v>5.8131112088801402E-2</v>
       </c>
-      <c r="U16" s="8">
+      <c r="V16" s="8">
         <f t="shared" si="4"/>
         <v>-2.4076031868862369E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
         <v>963.07600000000002</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>10</v>
       </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
       <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
         <v>256</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>9</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>140.85400000000001</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26.643000000000001</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>0.64800000000000002</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>8</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <v>152.29939999999999</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>26.303799999999999</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>0.6542</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <f t="shared" si="0"/>
         <v>11.445399999999978</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f t="shared" si="1"/>
         <v>-0.33920000000000172</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <f t="shared" si="2"/>
         <v>6.1999999999999833E-3</v>
       </c>
-      <c r="T17" s="8">
+      <c r="U17" s="8">
         <f t="shared" si="3"/>
         <v>7.5150657192345982E-2</v>
       </c>
-      <c r="U17" s="8">
+      <c r="V17" s="8">
         <f t="shared" si="4"/>
         <v>-1.2895475178491387E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
         <v>399.35719999999998</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
       <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
         <v>128</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>3</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>97.591999999999999</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>28.236999999999998</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>0.70299999999999996</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>3</v>
       </c>
-      <c r="N18" s="5">
+      <c r="O18" s="5">
         <v>103.09180000000001</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <v>27.9986</v>
       </c>
-      <c r="P18" s="5">
+      <c r="Q18" s="5">
         <v>0.70389999999999997</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <f t="shared" si="0"/>
         <v>5.4998000000000076</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f t="shared" si="1"/>
         <v>-0.23839999999999861</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <f t="shared" si="2"/>
         <v>9.000000000000119E-4</v>
       </c>
-      <c r="T18" s="8">
+      <c r="U18" s="8">
         <f t="shared" si="3"/>
         <v>5.3348568945347806E-2</v>
       </c>
-      <c r="U18" s="8">
+      <c r="V18" s="8">
         <f t="shared" si="4"/>
         <v>-8.5147114498581571E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
         <v>552.97400000000005</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>7</v>
       </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
       <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
         <v>256</v>
       </c>
-      <c r="H19" s="3">
-        <v>100</v>
-      </c>
       <c r="I19" s="3">
+        <v>100</v>
+      </c>
+      <c r="J19" s="3">
         <v>6</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>110.83499999999999</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>27.684000000000001</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <v>0.69799999999999995</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>5</v>
       </c>
-      <c r="N19" s="5">
+      <c r="O19" s="5">
         <v>118.7346</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <v>27.385000000000002</v>
       </c>
-      <c r="P19" s="5">
+      <c r="Q19" s="5">
         <v>0.69640000000000002</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <f t="shared" si="0"/>
         <v>7.8996000000000066</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f t="shared" si="1"/>
         <v>-0.29899999999999949</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <f t="shared" si="2"/>
         <v>-1.5999999999999348E-3</v>
       </c>
-      <c r="T19" s="8">
+      <c r="U19" s="8">
         <f t="shared" si="3"/>
         <v>6.6531575463260134E-2</v>
       </c>
-      <c r="U19" s="8">
+      <c r="V19" s="8">
         <f t="shared" si="4"/>
         <v>-1.0918385977725013E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
         <v>1988.4891</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>10</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>128</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>9</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>195.70599999999999</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25.215</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>0.746</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="5">
         <v>47</v>
       </c>
-      <c r="N20" s="5">
+      <c r="O20" s="5">
         <v>224.6414</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="5">
         <v>24.6159</v>
       </c>
-      <c r="P20" s="5">
+      <c r="Q20" s="5">
         <v>0.71489999999999998</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <f t="shared" si="0"/>
         <v>28.935400000000016</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <f t="shared" si="1"/>
         <v>-0.59909999999999997</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <f t="shared" si="2"/>
         <v>-3.1100000000000017E-2</v>
       </c>
-      <c r="T20" s="8">
+      <c r="U20" s="8">
         <f t="shared" si="3"/>
         <v>0.12880706761977095</v>
       </c>
-      <c r="U20" s="8">
+      <c r="V20" s="8">
         <f t="shared" si="4"/>
         <v>-2.4337927924634076E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21">
         <v>805.03399999999999</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21">
         <v>2</v>
       </c>
       <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
         <v>256</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>7</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>96.51</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28.285</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>0.75700000000000001</v>
       </c>
-      <c r="M21" s="5">
+      <c r="N21" s="5">
         <v>6</v>
       </c>
-      <c r="N21" s="5">
+      <c r="O21" s="5">
         <v>112.6387</v>
       </c>
-      <c r="O21" s="5">
+      <c r="P21" s="5">
         <v>27.613900000000001</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <v>0.75290000000000001</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <f t="shared" si="0"/>
         <v>16.128699999999995</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <f t="shared" si="1"/>
         <v>-0.67109999999999914</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <f t="shared" si="2"/>
         <v>-4.0999999999999925E-3</v>
       </c>
-      <c r="T21" s="8">
+      <c r="U21" s="8">
         <f t="shared" si="3"/>
         <v>0.14318968525027362</v>
       </c>
-      <c r="U21" s="8">
+      <c r="V21" s="8">
         <f t="shared" si="4"/>
         <v>-2.4302977848112695E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
         <v>1516.8369</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>6</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>256</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>155.54599999999999</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26.212</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>0.75900000000000001</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="5">
         <v>27</v>
       </c>
-      <c r="N22" s="5">
+      <c r="O22" s="5">
         <v>180.3546</v>
       </c>
-      <c r="O22" s="5">
+      <c r="P22" s="5">
         <v>25.569500000000001</v>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <v>0.73219999999999996</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <f t="shared" si="0"/>
         <v>24.808600000000013</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <f t="shared" si="1"/>
         <v>-0.64249999999999829</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <f t="shared" si="2"/>
         <v>-2.6800000000000046E-2</v>
       </c>
-      <c r="T22" s="8">
+      <c r="U22" s="8">
         <f t="shared" si="3"/>
         <v>0.13755457304665372</v>
       </c>
-      <c r="U22" s="8">
+      <c r="V22" s="8">
         <f t="shared" si="4"/>
         <v>-2.5127593421850183E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23">
         <v>517.91650000000004</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>20</v>
       </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
       <c r="G23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3">
         <v>256</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>6</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>92.981999999999999</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28.446999999999999</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>0.74299999999999999</v>
       </c>
-      <c r="M23" s="5">
+      <c r="N23" s="5">
         <v>5</v>
       </c>
-      <c r="N23" s="5">
+      <c r="O23" s="5">
         <v>98.41</v>
       </c>
-      <c r="O23" s="5">
+      <c r="P23" s="5">
         <v>28.200399999999998</v>
       </c>
-      <c r="P23" s="5">
+      <c r="Q23" s="5">
         <v>0.74070000000000003</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <f t="shared" si="0"/>
         <v>5.4279999999999973</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="1"/>
         <v>-0.24660000000000082</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <f t="shared" si="2"/>
         <v>-2.2999999999999687E-3</v>
       </c>
-      <c r="T23" s="8">
+      <c r="U23" s="8">
         <f t="shared" si="3"/>
         <v>5.5156996240219462E-2</v>
       </c>
-      <c r="U23" s="8">
+      <c r="V23" s="8">
         <f t="shared" si="4"/>
         <v>-8.7445568147969822E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24">
         <v>467.94540000000001</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>5</v>
       </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
       <c r="G24" s="3">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3">
         <v>256</v>
       </c>
-      <c r="H24" s="3">
-        <v>100</v>
-      </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>6</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>82.798000000000002</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28.951000000000001</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>0.76100000000000001</v>
       </c>
-      <c r="M24" s="5">
+      <c r="N24" s="5">
         <v>4</v>
       </c>
-      <c r="N24" s="5">
+      <c r="O24" s="5">
         <v>87.922600000000003</v>
       </c>
-      <c r="O24" s="5">
+      <c r="P24" s="5">
         <v>28.270700000000001</v>
       </c>
-      <c r="P24" s="5">
+      <c r="Q24" s="5">
         <v>0.76149999999999995</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <f t="shared" si="0"/>
         <v>5.1246000000000009</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f t="shared" si="1"/>
         <v>-0.68029999999999902</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <f t="shared" si="2"/>
         <v>4.9999999999994493E-4</v>
       </c>
-      <c r="T24" s="8">
+      <c r="U24" s="8">
         <f t="shared" si="3"/>
         <v>5.8285355528612671E-2</v>
       </c>
-      <c r="U24" s="8">
+      <c r="V24" s="8">
         <f t="shared" si="4"/>
         <v>-2.4063783351667947E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
         <v>473.34660000000002</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>10</v>
       </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
       <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3">
         <v>256</v>
       </c>
-      <c r="H25" s="3">
-        <v>100</v>
-      </c>
       <c r="I25" s="3">
+        <v>100</v>
+      </c>
+      <c r="J25" s="3">
         <v>6</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>83.894000000000005</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <v>28.893000000000001</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <v>0.75900000000000001</v>
       </c>
-      <c r="M25" s="5">
+      <c r="N25" s="5">
         <v>5</v>
       </c>
-      <c r="N25" s="5">
+      <c r="O25" s="5">
         <v>89.163700000000006</v>
       </c>
-      <c r="O25" s="5">
+      <c r="P25" s="5">
         <v>28.628900000000002</v>
       </c>
-      <c r="P25" s="5">
+      <c r="Q25" s="5">
         <v>0.75670000000000004</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <f t="shared" si="0"/>
         <v>5.2697000000000003</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <f t="shared" si="1"/>
         <v>-0.26409999999999911</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <f t="shared" si="2"/>
         <v>-2.2999999999999687E-3</v>
       </c>
-      <c r="T25" s="8">
+      <c r="U25" s="8">
         <f t="shared" si="3"/>
         <v>5.9101405616859774E-2</v>
       </c>
-      <c r="U25" s="8">
+      <c r="V25" s="8">
         <f t="shared" si="4"/>
         <v>-9.2249440250934921E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
         <v>1066.4603999999999</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>10</v>
       </c>
-      <c r="F26" s="3">
-        <v>2</v>
-      </c>
       <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3">
         <v>256</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>11</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>134.81200000000001</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26.834</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>0.68700000000000006</v>
       </c>
-      <c r="M26" s="5">
+      <c r="N26" s="5">
         <v>8</v>
       </c>
-      <c r="N26" s="5">
+      <c r="O26" s="5">
         <v>146.86770000000001</v>
       </c>
-      <c r="O26" s="5">
+      <c r="P26" s="5">
         <v>26.461500000000001</v>
       </c>
-      <c r="P26" s="5">
+      <c r="Q26" s="5">
         <v>0.68569999999999998</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <f t="shared" si="0"/>
         <v>12.055700000000002</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f t="shared" si="1"/>
         <v>-0.37249999999999872</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <f t="shared" si="2"/>
         <v>-1.3000000000000789E-3</v>
       </c>
-      <c r="T26" s="8">
+      <c r="U26" s="8">
         <f t="shared" si="3"/>
         <v>8.2085441523221239E-2</v>
       </c>
-      <c r="U26" s="8">
+      <c r="V26" s="8">
         <f t="shared" si="4"/>
         <v>-1.4077055344557138E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
         <v>465.16379999999998</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>4</v>
       </c>
-      <c r="F27" s="3">
-        <v>2</v>
-      </c>
       <c r="G27" s="3">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3">
         <v>256</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>6</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>82.085999999999999</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28.988</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>0.76300000000000001</v>
       </c>
-      <c r="M27" s="5">
+      <c r="N27" s="5">
         <v>5</v>
       </c>
-      <c r="N27" s="5">
+      <c r="O27" s="5">
         <v>87.252899999999997</v>
       </c>
-      <c r="O27" s="5">
+      <c r="P27" s="5">
         <v>28.722999999999999</v>
       </c>
-      <c r="P27" s="5">
+      <c r="Q27" s="5">
         <v>0.76</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <f t="shared" si="0"/>
         <v>5.1668999999999983</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f t="shared" si="1"/>
         <v>-0.26500000000000057</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <f t="shared" si="2"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="T27" s="8">
+      <c r="U27" s="8">
         <f t="shared" si="3"/>
         <v>5.9217515979411557E-2</v>
       </c>
-      <c r="U27" s="8">
+      <c r="V27" s="8">
         <f t="shared" si="4"/>
         <v>-9.2260557741183219E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28">
         <v>633.58150000000001</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>7</v>
       </c>
-      <c r="F28" s="3">
-        <v>2</v>
-      </c>
       <c r="G28" s="3">
+        <v>2</v>
+      </c>
+      <c r="H28" s="3">
         <v>128</v>
       </c>
-      <c r="H28" s="3">
-        <v>100</v>
-      </c>
       <c r="I28" s="3">
+        <v>100</v>
+      </c>
+      <c r="J28" s="3">
         <v>7</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>97.521000000000001</v>
       </c>
-      <c r="K28" s="3">
+      <c r="L28" s="3">
         <v>28.24</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M28" s="3">
         <v>0.73499999999999999</v>
       </c>
-      <c r="M28" s="5">
+      <c r="N28" s="5">
         <v>6</v>
       </c>
-      <c r="N28" s="5">
+      <c r="O28" s="5">
         <v>104.5967</v>
       </c>
-      <c r="O28" s="5">
+      <c r="P28" s="5">
         <v>27.935600000000001</v>
       </c>
-      <c r="P28" s="5">
+      <c r="Q28" s="5">
         <v>0.73599999999999999</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <f t="shared" si="0"/>
         <v>7.0756999999999977</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <f t="shared" si="1"/>
         <v>-0.30439999999999756</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <f t="shared" si="2"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="T28" s="8">
+      <c r="U28" s="8">
         <f t="shared" si="3"/>
         <v>6.7647449680534835E-2</v>
       </c>
-      <c r="U28" s="8">
+      <c r="V28" s="8">
         <f t="shared" si="4"/>
         <v>-1.0896490499577513E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29">
         <v>2260.9364999999998</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>256</v>
       </c>
-      <c r="H29" s="3">
-        <v>100</v>
-      </c>
       <c r="I29" s="3">
+        <v>100</v>
+      </c>
+      <c r="J29" s="3">
         <v>12</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>292.71300000000002</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>23.466000000000001</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>0.55200000000000005</v>
       </c>
-      <c r="M29" s="5">
+      <c r="N29" s="5">
         <v>50</v>
       </c>
-      <c r="N29" s="5">
+      <c r="O29" s="5">
         <v>320.61169999999998</v>
       </c>
-      <c r="O29" s="5">
+      <c r="P29" s="5">
         <v>23.071000000000002</v>
       </c>
-      <c r="P29" s="5">
+      <c r="Q29" s="5">
         <v>0.56669999999999998</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <f t="shared" si="0"/>
         <v>27.898699999999963</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <f t="shared" si="1"/>
         <v>-0.39499999999999957</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <f t="shared" si="2"/>
         <v>1.4699999999999935E-2</v>
       </c>
-      <c r="T29" s="8">
+      <c r="U29" s="8">
         <f t="shared" si="3"/>
         <v>8.7017098876927962E-2</v>
       </c>
-      <c r="U29" s="8">
+      <c r="V29" s="8">
         <f t="shared" si="4"/>
         <v>-1.7121061072341882E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30">
         <v>906.16790000000003</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
         <v>3</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>256</v>
       </c>
-      <c r="H30" s="3">
-        <v>100</v>
-      </c>
       <c r="I30" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3">
         <v>184.626</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
         <v>25.468</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <v>0.58699999999999997</v>
       </c>
-      <c r="M30" s="5">
+      <c r="N30" s="5">
         <v>4</v>
       </c>
-      <c r="N30" s="5">
+      <c r="O30" s="5">
         <v>190.1104</v>
       </c>
-      <c r="O30" s="5">
+      <c r="P30" s="5">
         <v>25.340699999999998</v>
       </c>
-      <c r="P30" s="5">
+      <c r="Q30" s="5">
         <v>0.60529999999999995</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <f t="shared" si="0"/>
         <v>5.4843999999999937</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <f t="shared" si="1"/>
         <v>-0.12730000000000175</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <f t="shared" si="2"/>
         <v>1.8299999999999983E-2</v>
       </c>
-      <c r="T30" s="8">
+      <c r="U30" s="8">
         <f t="shared" si="3"/>
         <v>2.8848500660668717E-2</v>
       </c>
-      <c r="U30" s="8">
+      <c r="V30" s="8">
         <f t="shared" si="4"/>
         <v>-5.0235392076778363E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31">
         <v>1727.3032000000001</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>6</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>3</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <v>64</v>
       </c>
-      <c r="H31" s="3">
-        <v>100</v>
-      </c>
       <c r="I31" s="3">
+        <v>100</v>
+      </c>
+      <c r="J31" s="3">
         <v>7</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>247.785</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
         <v>24.19</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <v>0.55900000000000005</v>
       </c>
-      <c r="M31" s="5">
+      <c r="N31" s="5">
         <v>45</v>
       </c>
-      <c r="N31" s="5">
+      <c r="O31" s="5">
         <v>249.56710000000001</v>
       </c>
-      <c r="O31" s="5">
+      <c r="P31" s="5">
         <v>24.158899999999999</v>
       </c>
-      <c r="P31" s="5">
+      <c r="Q31" s="5">
         <v>0.58150000000000002</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <f t="shared" si="0"/>
         <v>1.782100000000014</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f t="shared" si="1"/>
         <v>-3.1100000000002126E-2</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <f t="shared" si="2"/>
         <v>2.2499999999999964E-2</v>
       </c>
-      <c r="T31" s="8">
+      <c r="U31" s="8">
         <f t="shared" si="3"/>
         <v>7.1407649485850256E-3</v>
       </c>
-      <c r="U31" s="8">
+      <c r="V31" s="8">
         <f t="shared" si="4"/>
         <v>-1.2873102666099089E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32">
         <v>599.57119999999998</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>20</v>
       </c>
-      <c r="F32" s="3">
-        <v>2</v>
-      </c>
       <c r="G32" s="3">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3">
         <v>256</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>3</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>165.821</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25.934000000000001</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>0.59499999999999997</v>
       </c>
-      <c r="M32" s="5">
+      <c r="N32" s="5">
         <v>4</v>
       </c>
-      <c r="N32" s="5">
+      <c r="O32" s="5">
         <v>167.9014</v>
       </c>
-      <c r="O32" s="5">
+      <c r="P32" s="5">
         <v>25.880299999999998</v>
       </c>
-      <c r="P32" s="5">
+      <c r="Q32" s="5">
         <v>0.60209999999999997</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <f t="shared" si="0"/>
         <v>2.0803999999999974</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <f t="shared" si="1"/>
         <v>-5.3700000000002746E-2</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <f t="shared" si="2"/>
         <v>7.0999999999999952E-3</v>
       </c>
-      <c r="T32" s="8">
+      <c r="U32" s="8">
         <f t="shared" si="3"/>
         <v>1.2390605438668155E-2</v>
       </c>
-      <c r="U32" s="8">
+      <c r="V32" s="8">
         <f t="shared" si="4"/>
         <v>-2.0749373075274534E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33">
         <v>548.60919999999999</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>5</v>
       </c>
-      <c r="F33" s="3">
-        <v>2</v>
-      </c>
       <c r="G33" s="3">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3">
         <v>256</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>3</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>154.28</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26.248000000000001</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>0.61</v>
       </c>
-      <c r="M33" s="5">
+      <c r="N33" s="5">
         <v>3</v>
       </c>
-      <c r="N33" s="5">
+      <c r="O33" s="5">
         <v>156.2927</v>
       </c>
-      <c r="O33" s="5">
+      <c r="P33" s="5">
         <v>26.191400000000002</v>
       </c>
-      <c r="P33" s="5">
+      <c r="Q33" s="5">
         <v>0.61429999999999996</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <f t="shared" si="0"/>
         <v>2.0126999999999953</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <f t="shared" si="1"/>
         <v>-5.659999999999954E-2</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <f t="shared" si="2"/>
         <v>4.2999999999999705E-3</v>
       </c>
-      <c r="T33" s="8">
+      <c r="U33" s="8">
         <f t="shared" si="3"/>
         <v>1.2877760765537963E-2</v>
       </c>
-      <c r="U33" s="8">
+      <c r="V33" s="8">
         <f t="shared" si="4"/>
         <v>-2.1610146842093031E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>20</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34">
         <v>554.21400000000006</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>10</v>
       </c>
-      <c r="F34" s="3">
-        <v>2</v>
-      </c>
       <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3">
         <v>256</v>
       </c>
-      <c r="H34" s="3">
-        <v>100</v>
-      </c>
       <c r="I34" s="3">
+        <v>100</v>
+      </c>
+      <c r="J34" s="3">
         <v>3</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="3">
         <v>155.50200000000001</v>
       </c>
-      <c r="K34" s="3">
+      <c r="L34" s="3">
         <v>26.213000000000001</v>
       </c>
-      <c r="L34" s="3">
+      <c r="M34" s="3">
         <v>0.60799999999999998</v>
       </c>
-      <c r="M34" s="5">
+      <c r="N34" s="5">
         <v>3</v>
       </c>
-      <c r="N34" s="5">
+      <c r="O34" s="5">
         <v>157.51939999999999</v>
       </c>
-      <c r="O34" s="5">
+      <c r="P34" s="5">
         <v>26.157499999999999</v>
       </c>
-      <c r="P34" s="5">
+      <c r="Q34" s="5">
         <v>0.61260000000000003</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <f t="shared" si="0"/>
         <v>2.0173999999999808</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <f t="shared" si="1"/>
         <v>-5.5500000000002103E-2</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <f t="shared" si="2"/>
         <v>4.6000000000000485E-3</v>
       </c>
-      <c r="T34" s="8">
+      <c r="U34" s="8">
         <f t="shared" si="3"/>
         <v>1.2807311353395079E-2</v>
       </c>
-      <c r="U34" s="8">
+      <c r="V34" s="8">
         <f t="shared" si="4"/>
         <v>-2.1217624008411395E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
         <v>1277.6552999999999</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>10</v>
       </c>
-      <c r="F35" s="3">
-        <v>2</v>
-      </c>
       <c r="G35" s="3">
+        <v>2</v>
+      </c>
+      <c r="H35" s="3">
         <v>256</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>11</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>215.56700000000001</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24.795000000000002</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>0.54500000000000004</v>
       </c>
-      <c r="M35" s="5">
+      <c r="N35" s="5">
         <v>8</v>
       </c>
-      <c r="N35" s="5">
+      <c r="O35" s="5">
         <v>224.61109999999999</v>
       </c>
-      <c r="O35" s="5">
+      <c r="P35" s="5">
         <v>24.616499999999998</v>
       </c>
-      <c r="P35" s="5">
+      <c r="Q35" s="5">
         <v>0.54520000000000002</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <f t="shared" si="0"/>
         <v>9.044099999999986</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <f t="shared" si="1"/>
         <v>-0.17850000000000321</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <f t="shared" si="2"/>
         <v>1.9999999999997797E-4</v>
       </c>
-      <c r="T35" s="8">
+      <c r="U35" s="8">
         <f t="shared" si="3"/>
         <v>4.0265596847172673E-2</v>
       </c>
-      <c r="U35" s="8">
+      <c r="V35" s="8">
         <f t="shared" si="4"/>
         <v>-7.2512339284627478E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36">
         <v>545.50720000000001</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>4</v>
       </c>
-      <c r="F36" s="3">
-        <v>2</v>
-      </c>
       <c r="G36" s="3">
+        <v>2</v>
+      </c>
+      <c r="H36" s="3">
         <v>256</v>
       </c>
-      <c r="H36" s="3">
-        <v>100</v>
-      </c>
       <c r="I36" s="3">
+        <v>100</v>
+      </c>
+      <c r="J36" s="3">
         <v>3</v>
       </c>
-      <c r="J36" s="3">
+      <c r="K36" s="3">
         <v>153.62100000000001</v>
       </c>
-      <c r="K36" s="3">
+      <c r="L36" s="3">
         <v>26.265999999999998</v>
       </c>
-      <c r="L36" s="3">
+      <c r="M36" s="3">
         <v>0.61099999999999999</v>
       </c>
-      <c r="M36" s="5">
+      <c r="N36" s="5">
         <v>3</v>
       </c>
-      <c r="N36" s="5">
+      <c r="O36" s="5">
         <v>155.7081</v>
       </c>
-      <c r="O36" s="5">
+      <c r="P36" s="5">
         <v>26.207699999999999</v>
       </c>
-      <c r="P36" s="5">
+      <c r="Q36" s="5">
         <v>0.61509999999999998</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <f t="shared" si="0"/>
         <v>2.0870999999999924</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <f t="shared" si="1"/>
         <v>-5.829999999999913E-2</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <f t="shared" si="2"/>
         <v>4.0999999999999925E-3</v>
       </c>
-      <c r="T36" s="8">
+      <c r="U36" s="8">
         <f t="shared" si="3"/>
         <v>1.3403926963337118E-2</v>
       </c>
-      <c r="U36" s="8">
+      <c r="V36" s="8">
         <f t="shared" si="4"/>
         <v>-2.2245370635347295E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37">
         <v>749.78589999999997</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>7</v>
       </c>
-      <c r="F37" s="3">
-        <v>2</v>
-      </c>
       <c r="G37" s="3">
+        <v>2</v>
+      </c>
+      <c r="H37" s="3">
         <v>256</v>
       </c>
-      <c r="H37" s="3">
-        <v>100</v>
-      </c>
       <c r="I37" s="3">
+        <v>100</v>
+      </c>
+      <c r="J37" s="3">
         <v>6</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37" s="3">
         <v>173.547</v>
       </c>
-      <c r="K37" s="3">
+      <c r="L37" s="3">
         <v>25.736999999999998</v>
       </c>
-      <c r="L37" s="3">
+      <c r="M37" s="3">
         <v>0.59</v>
       </c>
-      <c r="M37" s="5">
+      <c r="N37" s="5">
         <v>4</v>
       </c>
-      <c r="N37" s="5">
+      <c r="O37" s="5">
         <v>177.9042</v>
       </c>
-      <c r="O37" s="5">
+      <c r="P37" s="5">
         <v>25.295000000000002</v>
       </c>
-      <c r="P37" s="5">
+      <c r="Q37" s="5">
         <v>0.56210000000000004</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <f t="shared" si="0"/>
         <v>4.357200000000006</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <f t="shared" si="1"/>
         <v>-0.44199999999999662</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <f t="shared" si="2"/>
         <v>-2.7899999999999925E-2</v>
       </c>
-      <c r="T37" s="8">
+      <c r="U37" s="8">
         <f t="shared" si="3"/>
         <v>2.4491833245083625E-2</v>
       </c>
-      <c r="U37" s="8">
+      <c r="V37" s="8">
         <f t="shared" si="4"/>
         <v>-1.7473809053172428E-2</v>
       </c>
     </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>3838.1801</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>128</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38">
+        <v>22</v>
+      </c>
+      <c r="K38">
+        <v>896.81700000000001</v>
+      </c>
+      <c r="L38">
+        <v>18.603999999999999</v>
+      </c>
+      <c r="M38">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="N38" s="9">
+        <v>50</v>
+      </c>
+      <c r="O38" s="9">
+        <v>659.07709999999997</v>
+      </c>
+      <c r="P38" s="9">
+        <v>19.941400000000002</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>0.55569999999999997</v>
+      </c>
+      <c r="R38">
+        <f t="shared" ref="R38:R73" si="5">O38-K38</f>
+        <v>-237.73990000000003</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ref="S38:S73" si="6">P38-L38</f>
+        <v>1.3374000000000024</v>
+      </c>
+      <c r="T38">
+        <f t="shared" ref="T38:T73" si="7">Q38-M38</f>
+        <v>2.0699999999999941E-2</v>
+      </c>
+      <c r="U38" s="8">
+        <f t="shared" ref="U38:U73" si="8">R38/O38</f>
+        <v>-0.36071637142300961</v>
+      </c>
+      <c r="V38" s="8">
+        <f t="shared" ref="V38:V73" si="9">S38/P38</f>
+        <v>6.706650485923768E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <v>1414.6353999999999</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>128</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>352.06099999999998</v>
+      </c>
+      <c r="L39">
+        <v>22.664999999999999</v>
+      </c>
+      <c r="M39">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="N39" s="9">
+        <v>2</v>
+      </c>
+      <c r="O39" s="9">
+        <v>364.73599999999999</v>
+      </c>
+      <c r="P39" s="9">
+        <v>22.573499999999999</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>0.60219999999999996</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="5"/>
+        <v>12.675000000000011</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="6"/>
+        <v>-9.1499999999999915E-2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="7"/>
+        <v>-8.0000000000002292E-4</v>
+      </c>
+      <c r="U39" s="8">
+        <f t="shared" si="8"/>
+        <v>3.4751162484646464E-2</v>
+      </c>
+      <c r="V39" s="8">
+        <f t="shared" si="9"/>
+        <v>-4.0534254767758621E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40">
+        <v>2783.5153</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>128</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <v>669.50699999999995</v>
+      </c>
+      <c r="L40">
+        <v>19.873000000000001</v>
+      </c>
+      <c r="M40">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="N40" s="9">
+        <v>50</v>
+      </c>
+      <c r="O40" s="9">
+        <v>547.18809999999996</v>
+      </c>
+      <c r="P40" s="9">
+        <v>20.749400000000001</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>0.57210000000000005</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="5"/>
+        <v>-122.31889999999999</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="6"/>
+        <v>0.87640000000000029</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="7"/>
+        <v>-8.9999999999990088E-4</v>
+      </c>
+      <c r="U40" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.22354086282212643</v>
+      </c>
+      <c r="V40" s="8">
+        <f t="shared" si="9"/>
+        <v>4.2237365899736874E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41">
+        <v>823.60310000000004</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>128</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>311.56200000000001</v>
+      </c>
+      <c r="L41">
+        <v>23.195</v>
+      </c>
+      <c r="M41">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="N41" s="9">
+        <v>2</v>
+      </c>
+      <c r="O41" s="9">
+        <v>310.15129999999999</v>
+      </c>
+      <c r="P41" s="9">
+        <v>23.1052</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="5"/>
+        <v>-1.4107000000000198</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="6"/>
+        <v>-8.9800000000000324E-2</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="7"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="U41" s="8">
+        <f t="shared" si="8"/>
+        <v>-4.5484252363282686E-3</v>
+      </c>
+      <c r="V41" s="8">
+        <f t="shared" si="9"/>
+        <v>-3.8865709883489571E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42">
+        <v>787.52650000000006</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>128</v>
+      </c>
+      <c r="I42">
+        <v>100</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>298.93799999999999</v>
+      </c>
+      <c r="L42">
+        <v>23.375</v>
+      </c>
+      <c r="M42">
+        <v>0.62</v>
+      </c>
+      <c r="N42" s="9">
+        <v>2</v>
+      </c>
+      <c r="O42" s="9">
+        <v>295.67869999999999</v>
+      </c>
+      <c r="P42" s="9">
+        <v>23.267199999999999</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>0.61919999999999997</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="5"/>
+        <v>-3.2592999999999961</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="6"/>
+        <v>-0.10780000000000101</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="7"/>
+        <v>-8.0000000000002292E-4</v>
+      </c>
+      <c r="U42" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.1023113940909494E-2</v>
+      </c>
+      <c r="V42" s="8">
+        <f t="shared" si="9"/>
+        <v>-4.6331316187594989E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43">
+        <v>790.45280000000002</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>128</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>301.34699999999998</v>
+      </c>
+      <c r="L43">
+        <v>23.34</v>
+      </c>
+      <c r="M43">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="N43" s="9">
+        <v>2</v>
+      </c>
+      <c r="O43" s="9">
+        <v>297.42380000000003</v>
+      </c>
+      <c r="P43" s="9">
+        <v>23.250599999999999</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>0.61839999999999995</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="5"/>
+        <v>-3.9231999999999516</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="6"/>
+        <v>-8.9400000000001256E-2</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="7"/>
+        <v>-6.0000000000004494E-4</v>
+      </c>
+      <c r="U43" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.3190605459280498E-2</v>
+      </c>
+      <c r="V43" s="8">
+        <f t="shared" si="9"/>
+        <v>-3.8450620629145596E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44">
+        <v>1651.6928</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>256</v>
+      </c>
+      <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="J44">
+        <v>7</v>
+      </c>
+      <c r="K44">
+        <v>482.959</v>
+      </c>
+      <c r="L44">
+        <v>21.292000000000002</v>
+      </c>
+      <c r="M44">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="N44" s="9">
+        <v>4</v>
+      </c>
+      <c r="O44" s="9">
+        <v>451.83010000000002</v>
+      </c>
+      <c r="P44" s="9">
+        <v>21.231100000000001</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="5"/>
+        <v>-31.128899999999987</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="6"/>
+        <v>-6.0900000000000176E-2</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="7"/>
+        <v>2.9999999999996696E-4</v>
+      </c>
+      <c r="U44" s="8">
+        <f t="shared" si="8"/>
+        <v>-6.8895144435928424E-2</v>
+      </c>
+      <c r="V44" s="8">
+        <f t="shared" si="9"/>
+        <v>-2.8684335715059594E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>788.12850000000003</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>64</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>298.98200000000003</v>
+      </c>
+      <c r="L45">
+        <v>23.373999999999999</v>
+      </c>
+      <c r="M45">
+        <v>0.62</v>
+      </c>
+      <c r="N45" s="9">
+        <v>2</v>
+      </c>
+      <c r="O45" s="9">
+        <v>294.51299999999998</v>
+      </c>
+      <c r="P45" s="9">
+        <v>23.275200000000002</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>0.61960000000000004</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="5"/>
+        <v>-4.4690000000000509</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="6"/>
+        <v>-9.8799999999997112E-2</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="7"/>
+        <v>-3.9999999999995595E-4</v>
+      </c>
+      <c r="U45" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.5174202836547288E-2</v>
+      </c>
+      <c r="V45" s="8">
+        <f t="shared" si="9"/>
+        <v>-4.2448614834672575E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <v>1038.6316999999999</v>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>64</v>
+      </c>
+      <c r="I46">
+        <v>100</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>350.97399999999999</v>
+      </c>
+      <c r="L46">
+        <v>22.678000000000001</v>
+      </c>
+      <c r="M46">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="N46" s="9">
+        <v>2</v>
+      </c>
+      <c r="O46" s="9">
+        <v>343.2072</v>
+      </c>
+      <c r="P46" s="9">
+        <v>22.5991</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>0.59240000000000004</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="5"/>
+        <v>-7.7667999999999893</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="6"/>
+        <v>-7.8900000000000858E-2</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="7"/>
+        <v>5.4000000000000714E-3</v>
+      </c>
+      <c r="U46" s="8">
+        <f t="shared" si="8"/>
+        <v>-2.2630061374003776E-2</v>
+      </c>
+      <c r="V46" s="8">
+        <f t="shared" si="9"/>
+        <v>-3.4912894761296182E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47">
+        <v>1667.9771000000001</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>64</v>
+      </c>
+      <c r="I47">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
+      </c>
+      <c r="K47">
+        <v>319.87400000000002</v>
+      </c>
+      <c r="L47">
+        <v>23.081</v>
+      </c>
+      <c r="M47">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="N47" s="9">
+        <v>50</v>
+      </c>
+      <c r="O47" s="9">
+        <v>217.5027</v>
+      </c>
+      <c r="P47" s="9">
+        <v>24.7562</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>0.68659999999999999</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="5"/>
+        <v>-102.37130000000002</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="6"/>
+        <v>1.6752000000000002</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="7"/>
+        <v>2.5599999999999956E-2</v>
+      </c>
+      <c r="U47" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.47066680091787372</v>
+      </c>
+      <c r="V47" s="8">
+        <f t="shared" si="9"/>
+        <v>6.7667897334809074E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48">
+        <v>661.21640000000002</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>128</v>
+      </c>
+      <c r="I48">
+        <v>100</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>115.791</v>
+      </c>
+      <c r="L48">
+        <v>27.494</v>
+      </c>
+      <c r="M48">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="N48" s="9">
+        <v>4</v>
+      </c>
+      <c r="O48" s="9">
+        <v>127.61069999999999</v>
+      </c>
+      <c r="P48" s="9">
+        <v>27.071899999999999</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>0.70479999999999998</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="5"/>
+        <v>11.819699999999997</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="6"/>
+        <v>-0.42210000000000036</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="7"/>
+        <v>-2.1999999999999797E-3</v>
+      </c>
+      <c r="U48" s="8">
+        <f t="shared" si="8"/>
+        <v>9.2623110757953667E-2</v>
+      </c>
+      <c r="V48" s="8">
+        <f t="shared" si="9"/>
+        <v>-1.5591812913020526E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>1249.7942</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>64</v>
+      </c>
+      <c r="I49">
+        <v>100</v>
+      </c>
+      <c r="J49">
+        <v>12</v>
+      </c>
+      <c r="K49">
+        <v>245.577</v>
+      </c>
+      <c r="L49">
+        <v>24.228999999999999</v>
+      </c>
+      <c r="M49">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="N49" s="9">
+        <v>37</v>
+      </c>
+      <c r="O49" s="9">
+        <v>185.97309999999999</v>
+      </c>
+      <c r="P49" s="9">
+        <v>25.436299999999999</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>0.70430000000000004</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="5"/>
+        <v>-59.60390000000001</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="6"/>
+        <v>1.2073</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="7"/>
+        <v>1.8299999999999983E-2</v>
+      </c>
+      <c r="U49" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.32049742677838899</v>
+      </c>
+      <c r="V49" s="8">
+        <f t="shared" si="9"/>
+        <v>4.7463664133541437E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50">
+        <v>454.9683</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>128</v>
+      </c>
+      <c r="I50">
+        <v>100</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>117.114</v>
+      </c>
+      <c r="L50">
+        <v>27.445</v>
+      </c>
+      <c r="M50">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="N50" s="9">
+        <v>4</v>
+      </c>
+      <c r="O50" s="9">
+        <v>113.9014</v>
+      </c>
+      <c r="P50" s="9">
+        <v>27.5655</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="5"/>
+        <v>-3.212600000000009</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="6"/>
+        <v>0.12049999999999983</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="7"/>
+        <v>-8.9999999999990088E-4</v>
+      </c>
+      <c r="U50" s="8">
+        <f t="shared" si="8"/>
+        <v>-2.8205096688890648E-2</v>
+      </c>
+      <c r="V50" s="8">
+        <f t="shared" si="9"/>
+        <v>4.3714062868440559E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51">
+        <v>402.68029999999999</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>256</v>
+      </c>
+      <c r="I51">
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>102.297</v>
+      </c>
+      <c r="L51">
+        <v>28.032</v>
+      </c>
+      <c r="M51">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="N51" s="9">
+        <v>3</v>
+      </c>
+      <c r="O51" s="9">
+        <v>103.6925</v>
+      </c>
+      <c r="P51" s="9">
+        <v>27.976500000000001</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="5"/>
+        <v>1.3954999999999984</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="6"/>
+        <v>-5.549999999999855E-2</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="7"/>
+        <v>-5.3999999999999604E-3</v>
+      </c>
+      <c r="U51" s="8">
+        <f t="shared" si="8"/>
+        <v>1.345806109410033E-2</v>
+      </c>
+      <c r="V51" s="8">
+        <f t="shared" si="9"/>
+        <v>-1.9838078387217324E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52">
+        <v>408.50029999999998</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>128</v>
+      </c>
+      <c r="I52">
+        <v>100</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>103.081</v>
+      </c>
+      <c r="L52">
+        <v>27.998999999999999</v>
+      </c>
+      <c r="M52">
+        <v>0.73</v>
+      </c>
+      <c r="N52" s="9">
+        <v>3</v>
+      </c>
+      <c r="O52" s="9">
+        <v>104.7821</v>
+      </c>
+      <c r="P52" s="9">
+        <v>27.955200000000001</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="5"/>
+        <v>1.7010999999999967</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="6"/>
+        <v>-4.3799999999997397E-2</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="U52" s="8">
+        <f t="shared" si="8"/>
+        <v>1.6234643130840064E-2</v>
+      </c>
+      <c r="V52" s="8">
+        <f t="shared" si="9"/>
+        <v>-1.5667925824174892E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53">
+        <v>963.07600000000002</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>256</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <v>160.61500000000001</v>
+      </c>
+      <c r="L53">
+        <v>26.073</v>
+      </c>
+      <c r="M53">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="N53" s="9">
+        <v>8</v>
+      </c>
+      <c r="O53" s="9">
+        <v>152.29939999999999</v>
+      </c>
+      <c r="P53" s="9">
+        <v>26.303799999999999</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>0.6542</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="5"/>
+        <v>-8.3156000000000176</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="6"/>
+        <v>0.23079999999999856</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="7"/>
+        <v>5.1999999999999824E-3</v>
+      </c>
+      <c r="U53" s="8">
+        <f t="shared" si="8"/>
+        <v>-5.4600346422901326E-2</v>
+      </c>
+      <c r="V53" s="8">
+        <f t="shared" si="9"/>
+        <v>8.7743976155535922E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54">
+        <v>399.35719999999998</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>64</v>
+      </c>
+      <c r="I54">
+        <v>100</v>
+      </c>
+      <c r="J54">
+        <v>7</v>
+      </c>
+      <c r="K54">
+        <v>101.517</v>
+      </c>
+      <c r="L54">
+        <v>28.065000000000001</v>
+      </c>
+      <c r="M54">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="N54" s="9">
+        <v>3</v>
+      </c>
+      <c r="O54" s="9">
+        <v>103.09180000000001</v>
+      </c>
+      <c r="P54" s="9">
+        <v>27.9986</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>0.70389999999999997</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="5"/>
+        <v>1.5748000000000104</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="6"/>
+        <v>-6.6400000000001569E-2</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="7"/>
+        <v>-3.1100000000000017E-2</v>
+      </c>
+      <c r="U54" s="8">
+        <f t="shared" si="8"/>
+        <v>1.5275705730232767E-2</v>
+      </c>
+      <c r="V54" s="8">
+        <f t="shared" si="9"/>
+        <v>-2.3715471487860667E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55">
+        <v>552.97400000000005</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>128</v>
+      </c>
+      <c r="I55">
+        <v>100</v>
+      </c>
+      <c r="J55">
+        <v>7</v>
+      </c>
+      <c r="K55">
+        <v>124.68</v>
+      </c>
+      <c r="L55">
+        <v>27.172999999999998</v>
+      </c>
+      <c r="M55">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="N55" s="9">
+        <v>5</v>
+      </c>
+      <c r="O55" s="9">
+        <v>118.7346</v>
+      </c>
+      <c r="P55" s="9">
+        <v>27.385000000000002</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="5"/>
+        <v>-5.9454000000000065</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="6"/>
+        <v>0.2120000000000033</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="7"/>
+        <v>1.4000000000000679E-3</v>
+      </c>
+      <c r="U55" s="8">
+        <f t="shared" si="8"/>
+        <v>-5.0073019995856359E-2</v>
+      </c>
+      <c r="V55" s="8">
+        <f t="shared" si="9"/>
+        <v>7.741464305276731E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56">
+        <v>1988.4891</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>128</v>
+      </c>
+      <c r="I56">
+        <v>100</v>
+      </c>
+      <c r="J56">
+        <v>24</v>
+      </c>
+      <c r="K56">
+        <v>371.05599999999998</v>
+      </c>
+      <c r="L56">
+        <v>22.436</v>
+      </c>
+      <c r="M56">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="N56" s="9">
+        <v>47</v>
+      </c>
+      <c r="O56" s="9">
+        <v>224.6414</v>
+      </c>
+      <c r="P56" s="9">
+        <v>24.6159</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="5"/>
+        <v>-146.41459999999998</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="6"/>
+        <v>2.1798999999999999</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="7"/>
+        <v>4.5899999999999941E-2</v>
+      </c>
+      <c r="U56" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.65177033262791262</v>
+      </c>
+      <c r="V56" s="8">
+        <f t="shared" si="9"/>
+        <v>8.8556583346536183E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57">
+        <v>805.03399999999999</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>256</v>
+      </c>
+      <c r="I57">
+        <v>100</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
+      </c>
+      <c r="K57">
+        <v>120.185</v>
+      </c>
+      <c r="L57">
+        <v>27.332000000000001</v>
+      </c>
+      <c r="M57">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="N57" s="9">
+        <v>6</v>
+      </c>
+      <c r="O57" s="9">
+        <v>112.6387</v>
+      </c>
+      <c r="P57" s="9">
+        <v>27.613900000000001</v>
+      </c>
+      <c r="Q57" s="10">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="5"/>
+        <v>-7.5463000000000022</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="6"/>
+        <v>0.28190000000000026</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="7"/>
+        <v>1.9900000000000029E-2</v>
+      </c>
+      <c r="U57" s="8">
+        <f t="shared" si="8"/>
+        <v>-6.6995624061712375E-2</v>
+      </c>
+      <c r="V57" s="8">
+        <f t="shared" si="9"/>
+        <v>1.0208626814756346E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58">
+        <v>1516.8369</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>256</v>
+      </c>
+      <c r="I58">
+        <v>100</v>
+      </c>
+      <c r="J58">
+        <v>12</v>
+      </c>
+      <c r="K58">
+        <v>263.75400000000002</v>
+      </c>
+      <c r="L58">
+        <v>23.919</v>
+      </c>
+      <c r="M58">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="N58" s="9">
+        <v>27</v>
+      </c>
+      <c r="O58" s="9">
+        <v>180.3546</v>
+      </c>
+      <c r="P58" s="9">
+        <v>25.569500000000001</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>0.73219999999999996</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="5"/>
+        <v>-83.399400000000014</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="6"/>
+        <v>1.650500000000001</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="7"/>
+        <v>3.1200000000000006E-2</v>
+      </c>
+      <c r="U58" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.46241903450203109</v>
+      </c>
+      <c r="V58" s="8">
+        <f t="shared" si="9"/>
+        <v>6.4549561000410677E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59">
+        <v>517.91650000000004</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>256</v>
+      </c>
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <v>103.977</v>
+      </c>
+      <c r="L59">
+        <v>27.960999999999999</v>
+      </c>
+      <c r="M59">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="N59" s="9">
+        <v>5</v>
+      </c>
+      <c r="O59" s="9">
+        <v>98.41</v>
+      </c>
+      <c r="P59" s="9">
+        <v>28.200399999999998</v>
+      </c>
+      <c r="Q59" s="10">
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="5"/>
+        <v>-5.5670000000000073</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="6"/>
+        <v>0.23939999999999984</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="7"/>
+        <v>4.7000000000000375E-3</v>
+      </c>
+      <c r="U59" s="8">
+        <f t="shared" si="8"/>
+        <v>-5.6569454323747666E-2</v>
+      </c>
+      <c r="V59" s="8">
+        <f t="shared" si="9"/>
+        <v>8.4892412873576201E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60">
+        <v>467.94540000000001</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>256</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
+      </c>
+      <c r="J60">
+        <v>7</v>
+      </c>
+      <c r="K60">
+        <v>90.944999999999993</v>
+      </c>
+      <c r="L60">
+        <v>28.542999999999999</v>
+      </c>
+      <c r="M60">
+        <v>0.754</v>
+      </c>
+      <c r="N60" s="9">
+        <v>4</v>
+      </c>
+      <c r="O60" s="9">
+        <v>87.922600000000003</v>
+      </c>
+      <c r="P60" s="9">
+        <v>28.492699999999999</v>
+      </c>
+      <c r="Q60" s="10">
+        <v>0.75649999999999995</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="5"/>
+        <v>-3.0223999999999904</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="6"/>
+        <v>-5.0300000000000011E-2</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="7"/>
+        <v>2.4999999999999467E-3</v>
+      </c>
+      <c r="U60" s="8">
+        <f t="shared" si="8"/>
+        <v>-3.4375689526924706E-2</v>
+      </c>
+      <c r="V60" s="8">
+        <f t="shared" si="9"/>
+        <v>-1.7653644617744199E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61">
+        <v>473.34660000000002</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>256</v>
+      </c>
+      <c r="I61">
+        <v>100</v>
+      </c>
+      <c r="J61">
+        <v>7</v>
+      </c>
+      <c r="K61">
+        <v>91.905000000000001</v>
+      </c>
+      <c r="L61">
+        <v>28.497</v>
+      </c>
+      <c r="M61">
+        <v>0.753</v>
+      </c>
+      <c r="N61" s="9">
+        <v>5</v>
+      </c>
+      <c r="O61" s="9">
+        <v>89.163700000000006</v>
+      </c>
+      <c r="P61" s="9">
+        <v>28.628900000000002</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>0.75670000000000004</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="5"/>
+        <v>-2.7412999999999954</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="6"/>
+        <v>0.13190000000000168</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="7"/>
+        <v>3.7000000000000366E-3</v>
+      </c>
+      <c r="U61" s="8">
+        <f t="shared" si="8"/>
+        <v>-3.0744574305462818E-2</v>
+      </c>
+      <c r="V61" s="8">
+        <f t="shared" si="9"/>
+        <v>4.6072325517222696E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62">
+        <v>1066.4603999999999</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>128</v>
+      </c>
+      <c r="I62">
+        <v>100</v>
+      </c>
+      <c r="J62">
+        <v>12</v>
+      </c>
+      <c r="K62">
+        <v>165.66499999999999</v>
+      </c>
+      <c r="L62">
+        <v>25.939</v>
+      </c>
+      <c r="M62">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="N62" s="9">
+        <v>8</v>
+      </c>
+      <c r="O62" s="9">
+        <v>146.86770000000001</v>
+      </c>
+      <c r="P62" s="9">
+        <v>26.461500000000001</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="5"/>
+        <v>-18.797299999999979</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="6"/>
+        <v>0.52250000000000085</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="7"/>
+        <v>2.8699999999999948E-2</v>
+      </c>
+      <c r="U62" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.12798797829611261</v>
+      </c>
+      <c r="V62" s="8">
+        <f t="shared" si="9"/>
+        <v>1.974566823498293E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63">
+        <v>465.16379999999998</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>256</v>
+      </c>
+      <c r="I63">
+        <v>100</v>
+      </c>
+      <c r="J63">
+        <v>7</v>
+      </c>
+      <c r="K63">
+        <v>90.188000000000002</v>
+      </c>
+      <c r="L63">
+        <v>28.579000000000001</v>
+      </c>
+      <c r="M63">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="N63" s="9">
+        <v>5</v>
+      </c>
+      <c r="O63" s="9">
+        <v>87.252899999999997</v>
+      </c>
+      <c r="P63" s="9">
+        <v>28.722999999999999</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="5"/>
+        <v>-2.9351000000000056</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="6"/>
+        <v>0.14399999999999835</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="U63" s="8">
+        <f t="shared" si="8"/>
+        <v>-3.3638996526190026E-2</v>
+      </c>
+      <c r="V63" s="8">
+        <f t="shared" si="9"/>
+        <v>5.0134038923510199E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64">
+        <v>633.58150000000001</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>256</v>
+      </c>
+      <c r="I64">
+        <v>100</v>
+      </c>
+      <c r="J64">
+        <v>9</v>
+      </c>
+      <c r="K64">
+        <v>111.417</v>
+      </c>
+      <c r="L64">
+        <v>27.661000000000001</v>
+      </c>
+      <c r="M64">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="N64" s="9">
+        <v>6</v>
+      </c>
+      <c r="O64" s="9">
+        <v>104.5967</v>
+      </c>
+      <c r="P64" s="9">
+        <v>27.935600000000001</v>
+      </c>
+      <c r="Q64" s="10">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="5"/>
+        <v>-6.8203000000000031</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="6"/>
+        <v>0.27459999999999951</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="U64" s="8">
+        <f t="shared" si="8"/>
+        <v>-6.5205690045670686E-2</v>
+      </c>
+      <c r="V64" s="8">
+        <f t="shared" si="9"/>
+        <v>9.8297512850985657E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65">
+        <v>2260.9364999999998</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>64</v>
+      </c>
+      <c r="I65">
+        <v>100</v>
+      </c>
+      <c r="J65">
+        <v>29</v>
+      </c>
+      <c r="K65">
+        <v>586.49400000000003</v>
+      </c>
+      <c r="L65">
+        <v>20.448</v>
+      </c>
+      <c r="M65">
+        <v>0.498</v>
+      </c>
+      <c r="N65" s="9">
+        <v>50</v>
+      </c>
+      <c r="O65" s="9">
+        <v>320.61169999999998</v>
+      </c>
+      <c r="P65" s="9">
+        <v>23.071000000000002</v>
+      </c>
+      <c r="Q65" s="10">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="5"/>
+        <v>-265.88230000000004</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="6"/>
+        <v>2.6230000000000011</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="7"/>
+        <v>6.8699999999999983E-2</v>
+      </c>
+      <c r="U65" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.82929693457849496</v>
+      </c>
+      <c r="V65" s="8">
+        <f t="shared" si="9"/>
+        <v>0.11369251441203246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66">
+        <v>906.16790000000003</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>64</v>
+      </c>
+      <c r="I66">
+        <v>100</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66">
+        <v>228.89699999999999</v>
+      </c>
+      <c r="L66">
+        <v>24.533999999999999</v>
+      </c>
+      <c r="M66">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="N66" s="9">
+        <v>4</v>
+      </c>
+      <c r="O66" s="9">
+        <v>190.1104</v>
+      </c>
+      <c r="P66" s="9">
+        <v>25.340699999999998</v>
+      </c>
+      <c r="Q66" s="10">
+        <v>0.60529999999999995</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="5"/>
+        <v>-38.786599999999993</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="6"/>
+        <v>0.80669999999999931</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="7"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="U66" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.20402145279795314</v>
+      </c>
+      <c r="V66" s="8">
+        <f t="shared" si="9"/>
+        <v>3.1834164012833087E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67">
+        <v>1727.3032000000001</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>128</v>
+      </c>
+      <c r="I67">
+        <v>100</v>
+      </c>
+      <c r="J67">
+        <v>19</v>
+      </c>
+      <c r="K67">
+        <v>413.58199999999999</v>
+      </c>
+      <c r="L67">
+        <v>21.965</v>
+      </c>
+      <c r="M67">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="N67" s="9">
+        <v>45</v>
+      </c>
+      <c r="O67" s="9">
+        <v>249.56710000000001</v>
+      </c>
+      <c r="P67" s="9">
+        <v>24.158899999999999</v>
+      </c>
+      <c r="Q67" s="10">
+        <v>0.58150000000000002</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="5"/>
+        <v>-164.01489999999998</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="6"/>
+        <v>2.1938999999999993</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="7"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="U67" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.65719760336999544</v>
+      </c>
+      <c r="V67" s="8">
+        <f t="shared" si="9"/>
+        <v>9.0811253823642607E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68">
+        <v>599.57119999999998</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>128</v>
+      </c>
+      <c r="I68">
+        <v>100</v>
+      </c>
+      <c r="J68">
+        <v>6</v>
+      </c>
+      <c r="K68">
+        <v>192.02500000000001</v>
+      </c>
+      <c r="L68">
+        <v>25.297000000000001</v>
+      </c>
+      <c r="M68">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="N68" s="9">
+        <v>4</v>
+      </c>
+      <c r="O68" s="9">
+        <v>167.9014</v>
+      </c>
+      <c r="P68" s="9">
+        <v>25.880299999999998</v>
+      </c>
+      <c r="Q68" s="10">
+        <v>0.60209999999999997</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="5"/>
+        <v>-24.12360000000001</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="6"/>
+        <v>0.58329999999999771</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="7"/>
+        <v>2.0100000000000007E-2</v>
+      </c>
+      <c r="U68" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.1436771819651296</v>
+      </c>
+      <c r="V68" s="8">
+        <f t="shared" si="9"/>
+        <v>2.253837861230348E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69">
+        <v>548.60919999999999</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>128</v>
+      </c>
+      <c r="I69">
+        <v>100</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>178.60900000000001</v>
+      </c>
+      <c r="L69">
+        <v>25.611999999999998</v>
+      </c>
+      <c r="M69">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="N69" s="9">
+        <v>3</v>
+      </c>
+      <c r="O69" s="9">
+        <v>156.2927</v>
+      </c>
+      <c r="P69" s="9">
+        <v>26.191400000000002</v>
+      </c>
+      <c r="Q69" s="10">
+        <v>0.61429999999999996</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="5"/>
+        <v>-22.316300000000012</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="6"/>
+        <v>0.57940000000000325</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="7"/>
+        <v>1.9299999999999984E-2</v>
+      </c>
+      <c r="U69" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.14278529963331629</v>
+      </c>
+      <c r="V69" s="8">
+        <f t="shared" si="9"/>
+        <v>2.2121765159556314E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70">
+        <v>554.21400000000006</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>128</v>
+      </c>
+      <c r="I70">
+        <v>100</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+      <c r="K70">
+        <v>180.06200000000001</v>
+      </c>
+      <c r="L70">
+        <v>25.577000000000002</v>
+      </c>
+      <c r="M70">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="N70" s="9">
+        <v>3</v>
+      </c>
+      <c r="O70" s="9">
+        <v>157.51939999999999</v>
+      </c>
+      <c r="P70" s="9">
+        <v>26.157499999999999</v>
+      </c>
+      <c r="Q70" s="10">
+        <v>0.61260000000000003</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="5"/>
+        <v>-22.542600000000022</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="6"/>
+        <v>0.58049999999999713</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="7"/>
+        <v>1.9600000000000062E-2</v>
+      </c>
+      <c r="U70" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.14310999153120202</v>
+      </c>
+      <c r="V70" s="8">
+        <f t="shared" si="9"/>
+        <v>2.219248781420232E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71">
+        <v>1277.6552999999999</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>128</v>
+      </c>
+      <c r="I71">
+        <v>100</v>
+      </c>
+      <c r="J71">
+        <v>13</v>
+      </c>
+      <c r="K71">
+        <v>306.40499999999997</v>
+      </c>
+      <c r="L71">
+        <v>23.268000000000001</v>
+      </c>
+      <c r="M71">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="N71" s="9">
+        <v>8</v>
+      </c>
+      <c r="O71" s="9">
+        <v>224.61109999999999</v>
+      </c>
+      <c r="P71" s="9">
+        <v>24.616499999999998</v>
+      </c>
+      <c r="Q71" s="10">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="5"/>
+        <v>-81.793899999999979</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="6"/>
+        <v>1.3484999999999978</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="7"/>
+        <v>6.2200000000000033E-2</v>
+      </c>
+      <c r="U71" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.3641578710936369</v>
+      </c>
+      <c r="V71" s="8">
+        <f t="shared" si="9"/>
+        <v>5.4780330266284726E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72">
+        <v>545.50720000000001</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>128</v>
+      </c>
+      <c r="I72">
+        <v>100</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>178.065</v>
+      </c>
+      <c r="L72">
+        <v>25.625</v>
+      </c>
+      <c r="M72">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="N72" s="9">
+        <v>3</v>
+      </c>
+      <c r="O72" s="9">
+        <v>155.7081</v>
+      </c>
+      <c r="P72" s="9">
+        <v>26.207699999999999</v>
+      </c>
+      <c r="Q72" s="10">
+        <v>0.61509999999999998</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="5"/>
+        <v>-22.356899999999996</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="6"/>
+        <v>0.58269999999999911</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="7"/>
+        <v>2.0100000000000007E-2</v>
+      </c>
+      <c r="U72" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.14358212578536375</v>
+      </c>
+      <c r="V72" s="8">
+        <f t="shared" si="9"/>
+        <v>2.2233923617867999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73">
+        <v>749.78589999999997</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>128</v>
+      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73">
+        <v>7</v>
+      </c>
+      <c r="K73">
+        <v>207.958</v>
+      </c>
+      <c r="L73">
+        <v>24.951000000000001</v>
+      </c>
+      <c r="M73">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="N73" s="9">
+        <v>4</v>
+      </c>
+      <c r="O73" s="9">
+        <v>177.9042</v>
+      </c>
+      <c r="P73" s="9">
+        <v>24.897500000000001</v>
+      </c>
+      <c r="Q73" s="10">
+        <v>0.56369999999999998</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="5"/>
+        <v>-30.053799999999995</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="6"/>
+        <v>-5.3499999999999659E-2</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="7"/>
+        <v>-2.9999999999996696E-4</v>
+      </c>
+      <c r="U73" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.16893249288099996</v>
+      </c>
+      <c r="V73" s="8">
+        <f t="shared" si="9"/>
+        <v>-2.1488101214981285E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{E1048CE1-163E-9243-951A-AD61112252EC}"/>
+  <autoFilter ref="A1:V1" xr:uid="{C0070676-F8E8-4A46-A33E-42545481B390}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3051,13 +5703,13 @@
       <selection pane="topRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3086,7 +5738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3115,7 +5767,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3144,7 +5796,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3173,7 +5825,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3202,7 +5854,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3231,7 +5883,7 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3260,7 +5912,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3289,7 +5941,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3318,7 +5970,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3347,7 +5999,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3376,7 +6028,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3405,7 +6057,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3434,7 +6086,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3463,7 +6115,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3492,7 +6144,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3521,7 +6173,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3550,7 +6202,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3579,7 +6231,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3608,7 +6260,7 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3637,7 +6289,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3666,7 +6318,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3695,7 +6347,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3724,7 +6376,7 @@
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -3753,7 +6405,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -3782,7 +6434,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -3811,7 +6463,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3840,7 +6492,7 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -3869,7 +6521,7 @@
         <v>0.65200000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -3898,7 +6550,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3927,7 +6579,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3956,7 +6608,7 @@
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3985,7 +6637,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -4014,7 +6666,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -4043,7 +6695,7 @@
         <v>0.48599999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -4072,7 +6724,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -4101,7 +6753,7 @@
         <v>0.69399999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>

--- a/matlab/scripts/optimal_log/Initial_data_analysis.xlsx
+++ b/matlab/scripts/optimal_log/Initial_data_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MTHE493\Polya_Restoration\matlab\scripts\optimal_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C82FE5B-3627-4440-8B2A-45799F0147F7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2422A8CD-EFD4-43D7-A691-DA1983453A51}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="444" windowWidth="28716" windowHeight="17556" xr2:uid="{F5EC45BB-9BF6-4592-8A54-61375F823C90}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Old" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">New!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">New!$A$1:$V$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Old!$A$1:$I$37</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -551,9 +551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC43DABC-DBC5-8947-9323-9B71ED88D465}">
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C38" sqref="C38:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,7 +654,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>3838.1801</v>
@@ -724,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>1414.6353999999999</v>
@@ -794,7 +794,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>2783.5153</v>
@@ -864,7 +864,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>823.60310000000004</v>
@@ -934,7 +934,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>787.52650000000006</v>
@@ -1004,7 +1004,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>790.45280000000002</v>
@@ -1074,7 +1074,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>1651.6928</v>
@@ -1144,7 +1144,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>788.12850000000003</v>
@@ -1214,7 +1214,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>1038.6316999999999</v>
@@ -1284,7 +1284,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>1667.9771000000001</v>
@@ -1354,7 +1354,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>661.21640000000002</v>
@@ -1424,7 +1424,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>1249.7942</v>
@@ -1494,7 +1494,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>454.9683</v>
@@ -1564,7 +1564,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>402.68029999999999</v>
@@ -1634,7 +1634,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>408.50029999999998</v>
@@ -1704,7 +1704,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>963.07600000000002</v>
@@ -1774,7 +1774,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>399.35719999999998</v>
@@ -1844,7 +1844,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>552.97400000000005</v>
@@ -1914,7 +1914,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>1988.4891</v>
@@ -1984,7 +1984,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>805.03399999999999</v>
@@ -2054,7 +2054,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>1516.8369</v>
@@ -2124,7 +2124,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>517.91650000000004</v>
@@ -2194,7 +2194,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24">
         <v>467.94540000000001</v>
@@ -2264,7 +2264,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>473.34660000000002</v>
@@ -2334,7 +2334,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26">
         <v>1066.4603999999999</v>
@@ -2404,7 +2404,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>465.16379999999998</v>
@@ -2474,7 +2474,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>633.58150000000001</v>
@@ -2544,7 +2544,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29">
         <v>2260.9364999999998</v>
@@ -2614,7 +2614,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30">
         <v>906.16790000000003</v>
@@ -2684,7 +2684,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>1727.3032000000001</v>
@@ -2754,7 +2754,7 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32">
         <v>599.57119999999998</v>
@@ -2824,7 +2824,7 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33">
         <v>548.60919999999999</v>
@@ -2894,7 +2894,7 @@
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34">
         <v>554.21400000000006</v>
@@ -2964,7 +2964,7 @@
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35">
         <v>1277.6552999999999</v>
@@ -3034,7 +3034,7 @@
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36">
         <v>545.50720000000001</v>
@@ -3104,7 +3104,7 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37">
         <v>749.78589999999997</v>
@@ -3174,7 +3174,7 @@
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38">
         <v>3838.1801</v>
@@ -3244,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39">
         <v>1414.6353999999999</v>
@@ -3314,7 +3314,7 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40">
         <v>2783.5153</v>
@@ -3384,7 +3384,7 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41">
         <v>823.60310000000004</v>
@@ -3454,7 +3454,7 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42">
         <v>787.52650000000006</v>
@@ -3524,7 +3524,7 @@
         <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43">
         <v>790.45280000000002</v>
@@ -3594,7 +3594,7 @@
         <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44">
         <v>1651.6928</v>
@@ -3664,7 +3664,7 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45">
         <v>788.12850000000003</v>
@@ -3734,7 +3734,7 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46">
         <v>1038.6316999999999</v>
@@ -3804,7 +3804,7 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47">
         <v>1667.9771000000001</v>
@@ -3874,7 +3874,7 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48">
         <v>661.21640000000002</v>
@@ -3944,7 +3944,7 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49">
         <v>1249.7942</v>
@@ -4014,7 +4014,7 @@
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50">
         <v>454.9683</v>
@@ -4084,7 +4084,7 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51">
         <v>402.68029999999999</v>
@@ -4154,7 +4154,7 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52">
         <v>408.50029999999998</v>
@@ -4224,7 +4224,7 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53">
         <v>963.07600000000002</v>
@@ -4294,7 +4294,7 @@
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54">
         <v>399.35719999999998</v>
@@ -4364,7 +4364,7 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55">
         <v>552.97400000000005</v>
@@ -4434,7 +4434,7 @@
         <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56">
         <v>1988.4891</v>
@@ -4504,7 +4504,7 @@
         <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57">
         <v>805.03399999999999</v>
@@ -4574,7 +4574,7 @@
         <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58">
         <v>1516.8369</v>
@@ -4644,7 +4644,7 @@
         <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59">
         <v>517.91650000000004</v>
@@ -4714,7 +4714,7 @@
         <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60">
         <v>467.94540000000001</v>
@@ -4784,7 +4784,7 @@
         <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D61">
         <v>473.34660000000002</v>
@@ -4854,7 +4854,7 @@
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62">
         <v>1066.4603999999999</v>
@@ -4924,7 +4924,7 @@
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D63">
         <v>465.16379999999998</v>
@@ -4994,7 +4994,7 @@
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D64">
         <v>633.58150000000001</v>
@@ -5064,7 +5064,7 @@
         <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D65">
         <v>2260.9364999999998</v>
@@ -5134,7 +5134,7 @@
         <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D66">
         <v>906.16790000000003</v>
@@ -5204,7 +5204,7 @@
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D67">
         <v>1727.3032000000001</v>
@@ -5274,7 +5274,7 @@
         <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D68">
         <v>599.57119999999998</v>
@@ -5344,7 +5344,7 @@
         <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D69">
         <v>548.60919999999999</v>
@@ -5414,7 +5414,7 @@
         <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D70">
         <v>554.21400000000006</v>
@@ -5484,7 +5484,7 @@
         <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D71">
         <v>1277.6552999999999</v>
@@ -5554,7 +5554,7 @@
         <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D72">
         <v>545.50720000000001</v>
@@ -5624,7 +5624,7 @@
         <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D73">
         <v>749.78589999999997</v>
@@ -5687,7 +5687,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1" xr:uid="{C0070676-F8E8-4A46-A33E-42545481B390}"/>
+  <autoFilter ref="A1:V73" xr:uid="{C0070676-F8E8-4A46-A33E-42545481B390}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
